--- a/Data CSV/analisis.xlsx
+++ b/Data CSV/analisis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELAINE\ta_elaine\Data CSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonapp\ta_elaine\Data CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01594759-10CC-441E-9E24-7835021B9C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4ACD62C-7FA5-4172-AA30-E61A3F351DC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20295" yWindow="555" windowWidth="17895" windowHeight="14055" activeTab="3" xr2:uid="{B73A4F9A-491E-4439-9728-3A59325EE64F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{B73A4F9A-491E-4439-9728-3A59325EE64F}"/>
   </bookViews>
   <sheets>
     <sheet name="analisis_gr" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="661">
   <si>
     <t>nama</t>
   </si>
@@ -300,13 +297,1735 @@
   </si>
   <si>
     <t>i2023110600081</t>
+  </si>
+  <si>
+    <t>i2023110600001</t>
+  </si>
+  <si>
+    <t>i2023110600002</t>
+  </si>
+  <si>
+    <t>i2023110600003</t>
+  </si>
+  <si>
+    <t>i2023110600004</t>
+  </si>
+  <si>
+    <t>i2023110600005</t>
+  </si>
+  <si>
+    <t>i2023110600006</t>
+  </si>
+  <si>
+    <t>i2023110600007</t>
+  </si>
+  <si>
+    <t>i2023110600008</t>
+  </si>
+  <si>
+    <t>i2023110600009</t>
+  </si>
+  <si>
+    <t>i2023110600010</t>
+  </si>
+  <si>
+    <t>i2023110600011</t>
+  </si>
+  <si>
+    <t>i2023110600012</t>
+  </si>
+  <si>
+    <t>i2023110600013</t>
+  </si>
+  <si>
+    <t>i2023110600014</t>
+  </si>
+  <si>
+    <t>i2023110600015</t>
+  </si>
+  <si>
+    <t>i2023110600016</t>
+  </si>
+  <si>
+    <t>i2023110600017</t>
+  </si>
+  <si>
+    <t>i2023110600018</t>
+  </si>
+  <si>
+    <t>i2023110600019</t>
+  </si>
+  <si>
+    <t>i2023110600020</t>
+  </si>
+  <si>
+    <t>i2023110600021</t>
+  </si>
+  <si>
+    <t>i2023110600022</t>
+  </si>
+  <si>
+    <t>i2023110600023</t>
+  </si>
+  <si>
+    <t>i2023110600024</t>
+  </si>
+  <si>
+    <t>i2023110600025</t>
+  </si>
+  <si>
+    <t>i2023110600026</t>
+  </si>
+  <si>
+    <t>i2023110600027</t>
+  </si>
+  <si>
+    <t>i2023110600028</t>
+  </si>
+  <si>
+    <t>i2023110600029</t>
+  </si>
+  <si>
+    <t>i2023110600030</t>
+  </si>
+  <si>
+    <t>i2023110600031</t>
+  </si>
+  <si>
+    <t>i2023110600032</t>
+  </si>
+  <si>
+    <t>i2023110600033</t>
+  </si>
+  <si>
+    <t>i2023110600034</t>
+  </si>
+  <si>
+    <t>i2023110600035</t>
+  </si>
+  <si>
+    <t>i2023110600036</t>
+  </si>
+  <si>
+    <t>i2023110600037</t>
+  </si>
+  <si>
+    <t>i2023110600038</t>
+  </si>
+  <si>
+    <t>i2023110600039</t>
+  </si>
+  <si>
+    <t>i2023110600040</t>
+  </si>
+  <si>
+    <t>i2023110600041</t>
+  </si>
+  <si>
+    <t>i2023110600042</t>
+  </si>
+  <si>
+    <t>i2023110600043</t>
+  </si>
+  <si>
+    <t>i2023110600044</t>
+  </si>
+  <si>
+    <t>i2023110600045</t>
+  </si>
+  <si>
+    <t>i2023110600046</t>
+  </si>
+  <si>
+    <t>i2023110600047</t>
+  </si>
+  <si>
+    <t>i2023110600048</t>
+  </si>
+  <si>
+    <t>i2023110600049</t>
+  </si>
+  <si>
+    <t>i2023110600050</t>
+  </si>
+  <si>
+    <t>i2023110600051</t>
+  </si>
+  <si>
+    <t>i2023110600052</t>
+  </si>
+  <si>
+    <t>i2023110600053</t>
+  </si>
+  <si>
+    <t>i2023110600054</t>
+  </si>
+  <si>
+    <t>i2023110600055</t>
+  </si>
+  <si>
+    <t>i2023110600056</t>
+  </si>
+  <si>
+    <t>i2023110600057</t>
+  </si>
+  <si>
+    <t>i2023110600058</t>
+  </si>
+  <si>
+    <t>i2023110600059</t>
+  </si>
+  <si>
+    <t>i2023110600060</t>
+  </si>
+  <si>
+    <t>i2023110600061</t>
+  </si>
+  <si>
+    <t>i2023110600062</t>
+  </si>
+  <si>
+    <t>i2023110600063</t>
+  </si>
+  <si>
+    <t>i2023110600064</t>
+  </si>
+  <si>
+    <t>i2023110600065</t>
+  </si>
+  <si>
+    <t>i2023110600066</t>
+  </si>
+  <si>
+    <t>i2023110600067</t>
+  </si>
+  <si>
+    <t>i2023110600068</t>
+  </si>
+  <si>
+    <t>i2023110600069</t>
+  </si>
+  <si>
+    <t>i2023110600070</t>
+  </si>
+  <si>
+    <t>i2023110600071</t>
+  </si>
+  <si>
+    <t>i2023110600072</t>
+  </si>
+  <si>
+    <t>i2023110600073</t>
+  </si>
+  <si>
+    <t>i2023110600074</t>
+  </si>
+  <si>
+    <t>i2023110600075</t>
+  </si>
+  <si>
+    <t>i2023110600076</t>
+  </si>
+  <si>
+    <t>i2023110600077</t>
+  </si>
+  <si>
+    <t>i2023110600078</t>
+  </si>
+  <si>
+    <t>i2023110600079</t>
+  </si>
+  <si>
+    <t>i2023110600080</t>
+  </si>
+  <si>
+    <t>i2023110600082</t>
+  </si>
+  <si>
+    <t>i2023110600083</t>
+  </si>
+  <si>
+    <t>i2023110600084</t>
+  </si>
+  <si>
+    <t>i2023110600085</t>
+  </si>
+  <si>
+    <t>i2023110600086</t>
+  </si>
+  <si>
+    <t>i2023110600087</t>
+  </si>
+  <si>
+    <t>i2023110600088</t>
+  </si>
+  <si>
+    <t>i2023110600089</t>
+  </si>
+  <si>
+    <t>i2023110600090</t>
+  </si>
+  <si>
+    <t>i2023110600091</t>
+  </si>
+  <si>
+    <t>i2023110600092</t>
+  </si>
+  <si>
+    <t>i2023110600093</t>
+  </si>
+  <si>
+    <t>i2023110600094</t>
+  </si>
+  <si>
+    <t>i2023110600095</t>
+  </si>
+  <si>
+    <t>i2023110600096</t>
+  </si>
+  <si>
+    <t>i2023110600097</t>
+  </si>
+  <si>
+    <t>i2023110600098</t>
+  </si>
+  <si>
+    <t>i2023110600099</t>
+  </si>
+  <si>
+    <t>i2023110600100</t>
+  </si>
+  <si>
+    <t>i2023110600101</t>
+  </si>
+  <si>
+    <t>i2023110600102</t>
+  </si>
+  <si>
+    <t>i2023110600103</t>
+  </si>
+  <si>
+    <t>i2023110600104</t>
+  </si>
+  <si>
+    <t>i2023110600105</t>
+  </si>
+  <si>
+    <t>i2023110600106</t>
+  </si>
+  <si>
+    <t>i2023110600107</t>
+  </si>
+  <si>
+    <t>i2023110600108</t>
+  </si>
+  <si>
+    <t>i2023110600109</t>
+  </si>
+  <si>
+    <t>i2023110600110</t>
+  </si>
+  <si>
+    <t>i2023110600111</t>
+  </si>
+  <si>
+    <t>i2023110600112</t>
+  </si>
+  <si>
+    <t>i2023110600113</t>
+  </si>
+  <si>
+    <t>i2023110600114</t>
+  </si>
+  <si>
+    <t>i2023110600115</t>
+  </si>
+  <si>
+    <t>i2023110600116</t>
+  </si>
+  <si>
+    <t>i2023110600117</t>
+  </si>
+  <si>
+    <t>i2023110600118</t>
+  </si>
+  <si>
+    <t>i2023110600119</t>
+  </si>
+  <si>
+    <t>i2023110600120</t>
+  </si>
+  <si>
+    <t>i2023110600121</t>
+  </si>
+  <si>
+    <t>i2023110600122</t>
+  </si>
+  <si>
+    <t>i2023110600123</t>
+  </si>
+  <si>
+    <t>i2023110600124</t>
+  </si>
+  <si>
+    <t>i2023110600125</t>
+  </si>
+  <si>
+    <t>i2023110600126</t>
+  </si>
+  <si>
+    <t>i2023110600127</t>
+  </si>
+  <si>
+    <t>i2023110600128</t>
+  </si>
+  <si>
+    <t>i2023110600129</t>
+  </si>
+  <si>
+    <t>i2023110600130</t>
+  </si>
+  <si>
+    <t>i2023110600131</t>
+  </si>
+  <si>
+    <t>i2023110600132</t>
+  </si>
+  <si>
+    <t>i2023110600133</t>
+  </si>
+  <si>
+    <t>i2023110600134</t>
+  </si>
+  <si>
+    <t>i2023110600135</t>
+  </si>
+  <si>
+    <t>i2023110600136</t>
+  </si>
+  <si>
+    <t>i2023110600137</t>
+  </si>
+  <si>
+    <t>i2023110600138</t>
+  </si>
+  <si>
+    <t>i2023110600139</t>
+  </si>
+  <si>
+    <t>i2023110600140</t>
+  </si>
+  <si>
+    <t>i2023110600141</t>
+  </si>
+  <si>
+    <t>i2023110600142</t>
+  </si>
+  <si>
+    <t>i2023110600143</t>
+  </si>
+  <si>
+    <t>i2023110600144</t>
+  </si>
+  <si>
+    <t>i2023110600145</t>
+  </si>
+  <si>
+    <t>i2023110600146</t>
+  </si>
+  <si>
+    <t>i2023110600147</t>
+  </si>
+  <si>
+    <t>i2023110600148</t>
+  </si>
+  <si>
+    <t>i2023110600149</t>
+  </si>
+  <si>
+    <t>i2023110600150</t>
+  </si>
+  <si>
+    <t>i2023110600151</t>
+  </si>
+  <si>
+    <t>i2023110600152</t>
+  </si>
+  <si>
+    <t>i2023110600153</t>
+  </si>
+  <si>
+    <t>i2023110600154</t>
+  </si>
+  <si>
+    <t>i2023110600155</t>
+  </si>
+  <si>
+    <t>i2023110600156</t>
+  </si>
+  <si>
+    <t>i2023110600157</t>
+  </si>
+  <si>
+    <t>i2023110600158</t>
+  </si>
+  <si>
+    <t>i2023110600159</t>
+  </si>
+  <si>
+    <t>i2023110600160</t>
+  </si>
+  <si>
+    <t>i2023110600161</t>
+  </si>
+  <si>
+    <t>i2023110600162</t>
+  </si>
+  <si>
+    <t>i2023110600163</t>
+  </si>
+  <si>
+    <t>i2023110600164</t>
+  </si>
+  <si>
+    <t>i2023110600165</t>
+  </si>
+  <si>
+    <t>i2023110600166</t>
+  </si>
+  <si>
+    <t>i2023110600167</t>
+  </si>
+  <si>
+    <t>i2023110600168</t>
+  </si>
+  <si>
+    <t>i2023110600169</t>
+  </si>
+  <si>
+    <t>i2023110600170</t>
+  </si>
+  <si>
+    <t>i2023110600171</t>
+  </si>
+  <si>
+    <t>i2023110600172</t>
+  </si>
+  <si>
+    <t>i2023110600173</t>
+  </si>
+  <si>
+    <t>i2023110600174</t>
+  </si>
+  <si>
+    <t>i2023110600175</t>
+  </si>
+  <si>
+    <t>i2023110600176</t>
+  </si>
+  <si>
+    <t>i2023110600177</t>
+  </si>
+  <si>
+    <t>i2023110600178</t>
+  </si>
+  <si>
+    <t>i2023110600179</t>
+  </si>
+  <si>
+    <t>i2023110600180</t>
+  </si>
+  <si>
+    <t>i2023110600181</t>
+  </si>
+  <si>
+    <t>i2023110600182</t>
+  </si>
+  <si>
+    <t>i2023110600183</t>
+  </si>
+  <si>
+    <t>i2023110600184</t>
+  </si>
+  <si>
+    <t>i2023110600185</t>
+  </si>
+  <si>
+    <t>i2023110600186</t>
+  </si>
+  <si>
+    <t>i2023110600187</t>
+  </si>
+  <si>
+    <t>i2023110600188</t>
+  </si>
+  <si>
+    <t>i2023110600189</t>
+  </si>
+  <si>
+    <t>i2023110600190</t>
+  </si>
+  <si>
+    <t>i2023110600191</t>
+  </si>
+  <si>
+    <t>i2023110600192</t>
+  </si>
+  <si>
+    <t>i2023110600193</t>
+  </si>
+  <si>
+    <t>i2023110600194</t>
+  </si>
+  <si>
+    <t>i2023110600195</t>
+  </si>
+  <si>
+    <t>i2023110600196</t>
+  </si>
+  <si>
+    <t>i2023110600197</t>
+  </si>
+  <si>
+    <t>i2023110600198</t>
+  </si>
+  <si>
+    <t>i2023110600199</t>
+  </si>
+  <si>
+    <t>i2023110600200</t>
+  </si>
+  <si>
+    <t>i2023110600201</t>
+  </si>
+  <si>
+    <t>i2023110600202</t>
+  </si>
+  <si>
+    <t>i2023110600203</t>
+  </si>
+  <si>
+    <t>i2023110600204</t>
+  </si>
+  <si>
+    <t>i2023110600205</t>
+  </si>
+  <si>
+    <t>i2023110600206</t>
+  </si>
+  <si>
+    <t>i2023110600207</t>
+  </si>
+  <si>
+    <t>i2023110600208</t>
+  </si>
+  <si>
+    <t>i2023110600209</t>
+  </si>
+  <si>
+    <t>i2023110600210</t>
+  </si>
+  <si>
+    <t>i2023110600211</t>
+  </si>
+  <si>
+    <t>i2023110600212</t>
+  </si>
+  <si>
+    <t>i2023110600213</t>
+  </si>
+  <si>
+    <t>i2023110600214</t>
+  </si>
+  <si>
+    <t>i2023110600215</t>
+  </si>
+  <si>
+    <t>i2023110600216</t>
+  </si>
+  <si>
+    <t>i2023110600217</t>
+  </si>
+  <si>
+    <t>i2023110600218</t>
+  </si>
+  <si>
+    <t>i2023110600219</t>
+  </si>
+  <si>
+    <t>i2023110600220</t>
+  </si>
+  <si>
+    <t>i2023110600221</t>
+  </si>
+  <si>
+    <t>i2023110600222</t>
+  </si>
+  <si>
+    <t>i2023110600223</t>
+  </si>
+  <si>
+    <t>i2023110600224</t>
+  </si>
+  <si>
+    <t>i2023110600225</t>
+  </si>
+  <si>
+    <t>i2023110600226</t>
+  </si>
+  <si>
+    <t>i2023110600227</t>
+  </si>
+  <si>
+    <t>i2023110600228</t>
+  </si>
+  <si>
+    <t>i2023110600229</t>
+  </si>
+  <si>
+    <t>i2023110600230</t>
+  </si>
+  <si>
+    <t>i2023110600231</t>
+  </si>
+  <si>
+    <t>i2023110600232</t>
+  </si>
+  <si>
+    <t>i2023110600233</t>
+  </si>
+  <si>
+    <t>i2023110600234</t>
+  </si>
+  <si>
+    <t>i2023110600235</t>
+  </si>
+  <si>
+    <t>i2023110600236</t>
+  </si>
+  <si>
+    <t>i2023110600237</t>
+  </si>
+  <si>
+    <t>i2023110600238</t>
+  </si>
+  <si>
+    <t>i2023110600239</t>
+  </si>
+  <si>
+    <t>i2023110600240</t>
+  </si>
+  <si>
+    <t>i2023110600241</t>
+  </si>
+  <si>
+    <t>i2023110600242</t>
+  </si>
+  <si>
+    <t>i2023110600243</t>
+  </si>
+  <si>
+    <t>i2023110600244</t>
+  </si>
+  <si>
+    <t>i2023110600245</t>
+  </si>
+  <si>
+    <t>i2023110600246</t>
+  </si>
+  <si>
+    <t>i2023110600247</t>
+  </si>
+  <si>
+    <t>i2023110600248</t>
+  </si>
+  <si>
+    <t>i2023110600249</t>
+  </si>
+  <si>
+    <t>i2023110600250</t>
+  </si>
+  <si>
+    <t>i2023110600251</t>
+  </si>
+  <si>
+    <t>i2023110600252</t>
+  </si>
+  <si>
+    <t>i2023110600253</t>
+  </si>
+  <si>
+    <t>i2023110600254</t>
+  </si>
+  <si>
+    <t>i2023110600255</t>
+  </si>
+  <si>
+    <t>i2023110600256</t>
+  </si>
+  <si>
+    <t>i2023110600257</t>
+  </si>
+  <si>
+    <t>i2023110600258</t>
+  </si>
+  <si>
+    <t>i2023110600259</t>
+  </si>
+  <si>
+    <t>i2023110600260</t>
+  </si>
+  <si>
+    <t>i2023110600261</t>
+  </si>
+  <si>
+    <t>i2023110600262</t>
+  </si>
+  <si>
+    <t>i2023110600263</t>
+  </si>
+  <si>
+    <t>i2023110600264</t>
+  </si>
+  <si>
+    <t>i2023110600265</t>
+  </si>
+  <si>
+    <t>i2023110600266</t>
+  </si>
+  <si>
+    <t>i2023110600267</t>
+  </si>
+  <si>
+    <t>i2023110600268</t>
+  </si>
+  <si>
+    <t>i2023110600269</t>
+  </si>
+  <si>
+    <t>i2023110600270</t>
+  </si>
+  <si>
+    <t>i2023110600271</t>
+  </si>
+  <si>
+    <t>i2023110600272</t>
+  </si>
+  <si>
+    <t>i2023110600273</t>
+  </si>
+  <si>
+    <t>i2023110600274</t>
+  </si>
+  <si>
+    <t>i2023110600275</t>
+  </si>
+  <si>
+    <t>i2023110600276</t>
+  </si>
+  <si>
+    <t>i2023110600277</t>
+  </si>
+  <si>
+    <t>i2023110600278</t>
+  </si>
+  <si>
+    <t>i2023110600279</t>
+  </si>
+  <si>
+    <t>i2023110600280</t>
+  </si>
+  <si>
+    <t>i2023110600281</t>
+  </si>
+  <si>
+    <t>i2023110600282</t>
+  </si>
+  <si>
+    <t>i2023110600283</t>
+  </si>
+  <si>
+    <t>i2023110600284</t>
+  </si>
+  <si>
+    <t>i2023110600285</t>
+  </si>
+  <si>
+    <t>i2023110600286</t>
+  </si>
+  <si>
+    <t>i2023110600287</t>
+  </si>
+  <si>
+    <t>i2023110600288</t>
+  </si>
+  <si>
+    <t>i2023110600289</t>
+  </si>
+  <si>
+    <t>i2023110600290</t>
+  </si>
+  <si>
+    <t>i2023110600291</t>
+  </si>
+  <si>
+    <t>i2023110600292</t>
+  </si>
+  <si>
+    <t>i2023110600293</t>
+  </si>
+  <si>
+    <t>i2023110600294</t>
+  </si>
+  <si>
+    <t>i2023110600295</t>
+  </si>
+  <si>
+    <t>i2023110600296</t>
+  </si>
+  <si>
+    <t>i2023110600297</t>
+  </si>
+  <si>
+    <t>i2023110600298</t>
+  </si>
+  <si>
+    <t>i2023110600299</t>
+  </si>
+  <si>
+    <t>i2023110600300</t>
+  </si>
+  <si>
+    <t>i2023110600301</t>
+  </si>
+  <si>
+    <t>i2023110600302</t>
+  </si>
+  <si>
+    <t>i2023110600303</t>
+  </si>
+  <si>
+    <t>i2023110600304</t>
+  </si>
+  <si>
+    <t>i2023110600305</t>
+  </si>
+  <si>
+    <t>i2023110600306</t>
+  </si>
+  <si>
+    <t>i2023110600307</t>
+  </si>
+  <si>
+    <t>i2023110600308</t>
+  </si>
+  <si>
+    <t>i2023110600309</t>
+  </si>
+  <si>
+    <t>i2023110600310</t>
+  </si>
+  <si>
+    <t>i2023110600311</t>
+  </si>
+  <si>
+    <t>i2023110600312</t>
+  </si>
+  <si>
+    <t>i2023110600313</t>
+  </si>
+  <si>
+    <t>i2023110600314</t>
+  </si>
+  <si>
+    <t>i2023110600315</t>
+  </si>
+  <si>
+    <t>i2023110600316</t>
+  </si>
+  <si>
+    <t>i2023110600317</t>
+  </si>
+  <si>
+    <t>i2023110600318</t>
+  </si>
+  <si>
+    <t>i2023110600319</t>
+  </si>
+  <si>
+    <t>i2023110600320</t>
+  </si>
+  <si>
+    <t>i2023110600321</t>
+  </si>
+  <si>
+    <t>i2023110600322</t>
+  </si>
+  <si>
+    <t>i2023110600323</t>
+  </si>
+  <si>
+    <t>i2023110600324</t>
+  </si>
+  <si>
+    <t>i2023110600325</t>
+  </si>
+  <si>
+    <t>i2023110600326</t>
+  </si>
+  <si>
+    <t>i2023110600327</t>
+  </si>
+  <si>
+    <t>i2023110600328</t>
+  </si>
+  <si>
+    <t>i2023110600329</t>
+  </si>
+  <si>
+    <t>i2023110600330</t>
+  </si>
+  <si>
+    <t>i2023110600331</t>
+  </si>
+  <si>
+    <t>i2023110600332</t>
+  </si>
+  <si>
+    <t>i2023110600333</t>
+  </si>
+  <si>
+    <t>i2023110600334</t>
+  </si>
+  <si>
+    <t>i2023110600335</t>
+  </si>
+  <si>
+    <t>i2023110600336</t>
+  </si>
+  <si>
+    <t>i2023110600337</t>
+  </si>
+  <si>
+    <t>i2023110600338</t>
+  </si>
+  <si>
+    <t>i2023110600339</t>
+  </si>
+  <si>
+    <t>i2023110600340</t>
+  </si>
+  <si>
+    <t>i2023110600341</t>
+  </si>
+  <si>
+    <t>i2023110600342</t>
+  </si>
+  <si>
+    <t>i2023110600343</t>
+  </si>
+  <si>
+    <t>i2023110600344</t>
+  </si>
+  <si>
+    <t>i2023110600345</t>
+  </si>
+  <si>
+    <t>i2023110600346</t>
+  </si>
+  <si>
+    <t>i2023110600347</t>
+  </si>
+  <si>
+    <t>i2023110600348</t>
+  </si>
+  <si>
+    <t>i2023110600349</t>
+  </si>
+  <si>
+    <t>i2023110600350</t>
+  </si>
+  <si>
+    <t>i2023110600351</t>
+  </si>
+  <si>
+    <t>i2023110600352</t>
+  </si>
+  <si>
+    <t>i2023110600353</t>
+  </si>
+  <si>
+    <t>i2023110600354</t>
+  </si>
+  <si>
+    <t>i2023110600355</t>
+  </si>
+  <si>
+    <t>i2023110600356</t>
+  </si>
+  <si>
+    <t>i2023110600357</t>
+  </si>
+  <si>
+    <t>i2023110600358</t>
+  </si>
+  <si>
+    <t>i2023110600359</t>
+  </si>
+  <si>
+    <t>i2023110600360</t>
+  </si>
+  <si>
+    <t>i2023110600361</t>
+  </si>
+  <si>
+    <t>i2023110600362</t>
+  </si>
+  <si>
+    <t>i2023110600363</t>
+  </si>
+  <si>
+    <t>i2023110600364</t>
+  </si>
+  <si>
+    <t>i2023110600365</t>
+  </si>
+  <si>
+    <t>i2023110600366</t>
+  </si>
+  <si>
+    <t>i2023110600367</t>
+  </si>
+  <si>
+    <t>i2023110600368</t>
+  </si>
+  <si>
+    <t>i2023110600369</t>
+  </si>
+  <si>
+    <t>i2023110600370</t>
+  </si>
+  <si>
+    <t>i2023110600371</t>
+  </si>
+  <si>
+    <t>i2023110600372</t>
+  </si>
+  <si>
+    <t>i2023110600373</t>
+  </si>
+  <si>
+    <t>i2023110600374</t>
+  </si>
+  <si>
+    <t>i2023110600375</t>
+  </si>
+  <si>
+    <t>i2023110600376</t>
+  </si>
+  <si>
+    <t>i2023110600377</t>
+  </si>
+  <si>
+    <t>i2023110600378</t>
+  </si>
+  <si>
+    <t>i2023110600379</t>
+  </si>
+  <si>
+    <t>i2023110600380</t>
+  </si>
+  <si>
+    <t>i2023110600381</t>
+  </si>
+  <si>
+    <t>i2023110600382</t>
+  </si>
+  <si>
+    <t>i2023110600383</t>
+  </si>
+  <si>
+    <t>i2023110600384</t>
+  </si>
+  <si>
+    <t>i2023110600385</t>
+  </si>
+  <si>
+    <t>i2023110600386</t>
+  </si>
+  <si>
+    <t>i2023110600387</t>
+  </si>
+  <si>
+    <t>i2023110600388</t>
+  </si>
+  <si>
+    <t>i2023110600389</t>
+  </si>
+  <si>
+    <t>i2023110600390</t>
+  </si>
+  <si>
+    <t>i2023110600391</t>
+  </si>
+  <si>
+    <t>i2023110600392</t>
+  </si>
+  <si>
+    <t>i2023110600393</t>
+  </si>
+  <si>
+    <t>i2023110600394</t>
+  </si>
+  <si>
+    <t>i2023110600395</t>
+  </si>
+  <si>
+    <t>i2023110600396</t>
+  </si>
+  <si>
+    <t>i2023110600397</t>
+  </si>
+  <si>
+    <t>i2023110600398</t>
+  </si>
+  <si>
+    <t>i2023110600399</t>
+  </si>
+  <si>
+    <t>i2023110600400</t>
+  </si>
+  <si>
+    <t>i2023110600401</t>
+  </si>
+  <si>
+    <t>i2023110600402</t>
+  </si>
+  <si>
+    <t>i2023110600403</t>
+  </si>
+  <si>
+    <t>i2023110600404</t>
+  </si>
+  <si>
+    <t>i2023110600405</t>
+  </si>
+  <si>
+    <t>i2023110600406</t>
+  </si>
+  <si>
+    <t>i2023110600407</t>
+  </si>
+  <si>
+    <t>i2023110600408</t>
+  </si>
+  <si>
+    <t>i2023110600409</t>
+  </si>
+  <si>
+    <t>i2023110600410</t>
+  </si>
+  <si>
+    <t>i2023110600411</t>
+  </si>
+  <si>
+    <t>i2023110600412</t>
+  </si>
+  <si>
+    <t>i2023110600413</t>
+  </si>
+  <si>
+    <t>i2023110600414</t>
+  </si>
+  <si>
+    <t>i2023110600415</t>
+  </si>
+  <si>
+    <t>i2023110600416</t>
+  </si>
+  <si>
+    <t>i2023110600417</t>
+  </si>
+  <si>
+    <t>i2023110600418</t>
+  </si>
+  <si>
+    <t>i2023110600419</t>
+  </si>
+  <si>
+    <t>i2023110600420</t>
+  </si>
+  <si>
+    <t>i2023110600421</t>
+  </si>
+  <si>
+    <t>i2023110600422</t>
+  </si>
+  <si>
+    <t>i2023110600423</t>
+  </si>
+  <si>
+    <t>i2023110600424</t>
+  </si>
+  <si>
+    <t>i2023110600425</t>
+  </si>
+  <si>
+    <t>i2023110600426</t>
+  </si>
+  <si>
+    <t>i2023110600427</t>
+  </si>
+  <si>
+    <t>i2023110600428</t>
+  </si>
+  <si>
+    <t>i2023110600429</t>
+  </si>
+  <si>
+    <t>i2023110600430</t>
+  </si>
+  <si>
+    <t>i2023110600431</t>
+  </si>
+  <si>
+    <t>i2023110600432</t>
+  </si>
+  <si>
+    <t>i2023110600433</t>
+  </si>
+  <si>
+    <t>i2023110600434</t>
+  </si>
+  <si>
+    <t>i2023110600435</t>
+  </si>
+  <si>
+    <t>i2023110600436</t>
+  </si>
+  <si>
+    <t>i2023110600437</t>
+  </si>
+  <si>
+    <t>i2023110600438</t>
+  </si>
+  <si>
+    <t>i2023110600439</t>
+  </si>
+  <si>
+    <t>i2023110600440</t>
+  </si>
+  <si>
+    <t>i2023110600441</t>
+  </si>
+  <si>
+    <t>i2023110600442</t>
+  </si>
+  <si>
+    <t>i2023110600443</t>
+  </si>
+  <si>
+    <t>i2023110600444</t>
+  </si>
+  <si>
+    <t>i2023110600445</t>
+  </si>
+  <si>
+    <t>i2023110600446</t>
+  </si>
+  <si>
+    <t>i2023110600447</t>
+  </si>
+  <si>
+    <t>i2023110600448</t>
+  </si>
+  <si>
+    <t>i2023110600449</t>
+  </si>
+  <si>
+    <t>i2023110600450</t>
+  </si>
+  <si>
+    <t>i2023110600451</t>
+  </si>
+  <si>
+    <t>i2023110600452</t>
+  </si>
+  <si>
+    <t>i2023110600453</t>
+  </si>
+  <si>
+    <t>i2023110600454</t>
+  </si>
+  <si>
+    <t>i2023110600455</t>
+  </si>
+  <si>
+    <t>i2023110600456</t>
+  </si>
+  <si>
+    <t>i2023110600457</t>
+  </si>
+  <si>
+    <t>i2023110600458</t>
+  </si>
+  <si>
+    <t>i2023110600459</t>
+  </si>
+  <si>
+    <t>i2023110600460</t>
+  </si>
+  <si>
+    <t>i2023110600461</t>
+  </si>
+  <si>
+    <t>i2023110600462</t>
+  </si>
+  <si>
+    <t>i2023110600463</t>
+  </si>
+  <si>
+    <t>i2023110600464</t>
+  </si>
+  <si>
+    <t>i2023110600465</t>
+  </si>
+  <si>
+    <t>i2023110600466</t>
+  </si>
+  <si>
+    <t>i2023110600467</t>
+  </si>
+  <si>
+    <t>i2023110600468</t>
+  </si>
+  <si>
+    <t>i2023110600469</t>
+  </si>
+  <si>
+    <t>i2023110600470</t>
+  </si>
+  <si>
+    <t>i2023110600471</t>
+  </si>
+  <si>
+    <t>i2023110600472</t>
+  </si>
+  <si>
+    <t>i2023110600473</t>
+  </si>
+  <si>
+    <t>i2023110600474</t>
+  </si>
+  <si>
+    <t>i2023110600475</t>
+  </si>
+  <si>
+    <t>i2023110600476</t>
+  </si>
+  <si>
+    <t>i2023110600477</t>
+  </si>
+  <si>
+    <t>i2023110600478</t>
+  </si>
+  <si>
+    <t>i2023110600479</t>
+  </si>
+  <si>
+    <t>i2023110600480</t>
+  </si>
+  <si>
+    <t>i2023110600481</t>
+  </si>
+  <si>
+    <t>i2023110600482</t>
+  </si>
+  <si>
+    <t>i2023110600483</t>
+  </si>
+  <si>
+    <t>i2023110600484</t>
+  </si>
+  <si>
+    <t>i2023110600485</t>
+  </si>
+  <si>
+    <t>i2023110600486</t>
+  </si>
+  <si>
+    <t>i2023110600487</t>
+  </si>
+  <si>
+    <t>i2023110600488</t>
+  </si>
+  <si>
+    <t>i2023110600489</t>
+  </si>
+  <si>
+    <t>i2023110600490</t>
+  </si>
+  <si>
+    <t>i2023110600491</t>
+  </si>
+  <si>
+    <t>i2023110600492</t>
+  </si>
+  <si>
+    <t>i2023110600493</t>
+  </si>
+  <si>
+    <t>i2023110600494</t>
+  </si>
+  <si>
+    <t>i2023110600495</t>
+  </si>
+  <si>
+    <t>i2023110600496</t>
+  </si>
+  <si>
+    <t>i2023110600497</t>
+  </si>
+  <si>
+    <t>i2023110600498</t>
+  </si>
+  <si>
+    <t>i2023110600499</t>
+  </si>
+  <si>
+    <t>i2023110600500</t>
+  </si>
+  <si>
+    <t>i2023110600501</t>
+  </si>
+  <si>
+    <t>i2023110600502</t>
+  </si>
+  <si>
+    <t>i2023110600503</t>
+  </si>
+  <si>
+    <t>i2023110600504</t>
+  </si>
+  <si>
+    <t>i2023110600505</t>
+  </si>
+  <si>
+    <t>i2023110600506</t>
+  </si>
+  <si>
+    <t>i2023110600507</t>
+  </si>
+  <si>
+    <t>i2023110600508</t>
+  </si>
+  <si>
+    <t>i2023110600509</t>
+  </si>
+  <si>
+    <t>i2023110600510</t>
+  </si>
+  <si>
+    <t>i2023110600511</t>
+  </si>
+  <si>
+    <t>i2023110600512</t>
+  </si>
+  <si>
+    <t>i2023110600513</t>
+  </si>
+  <si>
+    <t>i2023110600514</t>
+  </si>
+  <si>
+    <t>i2023110600515</t>
+  </si>
+  <si>
+    <t>i2023110600516</t>
+  </si>
+  <si>
+    <t>i2023110600517</t>
+  </si>
+  <si>
+    <t>i2023110600518</t>
+  </si>
+  <si>
+    <t>i2023110600519</t>
+  </si>
+  <si>
+    <t>i2023110600520</t>
+  </si>
+  <si>
+    <t>i2023110600521</t>
+  </si>
+  <si>
+    <t>i2023110600522</t>
+  </si>
+  <si>
+    <t>i2023110600523</t>
+  </si>
+  <si>
+    <t>i2023110600524</t>
+  </si>
+  <si>
+    <t>i2023110600525</t>
+  </si>
+  <si>
+    <t>i2023110600526</t>
+  </si>
+  <si>
+    <t>i2023110600527</t>
+  </si>
+  <si>
+    <t>i2023110600528</t>
+  </si>
+  <si>
+    <t>i2023110600529</t>
+  </si>
+  <si>
+    <t>i2023110600530</t>
+  </si>
+  <si>
+    <t>i2023110600531</t>
+  </si>
+  <si>
+    <t>i2023110600532</t>
+  </si>
+  <si>
+    <t>i2023110600533</t>
+  </si>
+  <si>
+    <t>i2023110600534</t>
+  </si>
+  <si>
+    <t>i2023110600535</t>
+  </si>
+  <si>
+    <t>i2023110600536</t>
+  </si>
+  <si>
+    <t>i2023110600537</t>
+  </si>
+  <si>
+    <t>i2023110600538</t>
+  </si>
+  <si>
+    <t>i2023110600539</t>
+  </si>
+  <si>
+    <t>i2023110600540</t>
+  </si>
+  <si>
+    <t>i2023110600541</t>
+  </si>
+  <si>
+    <t>i2023110600542</t>
+  </si>
+  <si>
+    <t>i2023110600543</t>
+  </si>
+  <si>
+    <t>i2023110600544</t>
+  </si>
+  <si>
+    <t>i2023110600545</t>
+  </si>
+  <si>
+    <t>i2023110600546</t>
+  </si>
+  <si>
+    <t>i2023110600547</t>
+  </si>
+  <si>
+    <t>i2023110600548</t>
+  </si>
+  <si>
+    <t>i2023110600549</t>
+  </si>
+  <si>
+    <t>i2023110600550</t>
+  </si>
+  <si>
+    <t>i2023110600551</t>
+  </si>
+  <si>
+    <t>i2023110600552</t>
+  </si>
+  <si>
+    <t>i2023110600553</t>
+  </si>
+  <si>
+    <t>i2023110600554</t>
+  </si>
+  <si>
+    <t>i2023110600555</t>
+  </si>
+  <si>
+    <t>i2023110600556</t>
+  </si>
+  <si>
+    <t>i2023110600557</t>
+  </si>
+  <si>
+    <t>i2023110600558</t>
+  </si>
+  <si>
+    <t>i2023110600559</t>
+  </si>
+  <si>
+    <t>i2023110600560</t>
+  </si>
+  <si>
+    <t>i2023110600561</t>
+  </si>
+  <si>
+    <t>i2023110600562</t>
+  </si>
+  <si>
+    <t>i2023110600563</t>
+  </si>
+  <si>
+    <t>i2023110600564</t>
+  </si>
+  <si>
+    <t>i2023110600565</t>
+  </si>
+  <si>
+    <t>i2023110600566</t>
+  </si>
+  <si>
+    <t>i2023110600567</t>
+  </si>
+  <si>
+    <t>i2023110600568</t>
+  </si>
+  <si>
+    <t>i2023110600569</t>
+  </si>
+  <si>
+    <t>i2023110600570</t>
+  </si>
+  <si>
+    <t>i2023110600571</t>
+  </si>
+  <si>
+    <t>i2023110600572</t>
+  </si>
+  <si>
+    <t>i2023110600573</t>
+  </si>
+  <si>
+    <t>i2023110600574</t>
+  </si>
+  <si>
+    <t>i2023110600575</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -755,12 +2474,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="78" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -771,7 +2490,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -783,7 +2502,7 @@
         <v>('Pembangungan Arsitektur SPBE','0'),</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,7 +2514,7 @@
         <v>('Pembentukan dan Penguatan Kapasitas Tim Koordinasi SPBE','0'),</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -807,7 +2526,7 @@
         <v>('Evaluasi Penerapan Kebijakan SPBE ','0'),</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,7 +2538,7 @@
         <v>('Portal Pelayanan Publik yang Terintegrasi ','1'),</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -831,7 +2550,7 @@
         <v>('Portal Pelayanan Administrasi Pemerintahan yang Terintegrasi','1'),</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -843,7 +2562,7 @@
         <v>('Penyelenggaraan Manajemen Layanan','1'),</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -855,7 +2574,7 @@
         <v>('Penyediaan Pusat Data Nasional ','2'),</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -867,7 +2586,7 @@
         <v>('Penyediaan Jaringan Intra Pemerintah ','2'),</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -879,7 +2598,7 @@
         <v>('Penyediaan Sistem Penghubung Layanan Pemerintah ','2'),</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -891,7 +2610,7 @@
         <v>('Penyediaan Akses Berkualitas Terhadap Layanan SPBE ','2'),</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -903,7 +2622,7 @@
         <v>('Pengembangan Layanan Berbasis Teknologi Layanan Berbagi Pakai','2'),</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -915,7 +2634,7 @@
         <v>('Pembangunan Portal Data Nasional ','2'),</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -927,7 +2646,7 @@
         <v>('Pembangunan Sistem Keamanan Informasi Nasional ','2'),</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -939,7 +2658,7 @@
         <v>('pengembangan AI untuk Pengambilan Keputusan Cepat dan Akurat','2'),</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -951,7 +2670,7 @@
         <v>('Promosi Literasi SPBE ','3'),</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -963,7 +2682,7 @@
         <v>('Peningkatan Kapasitas ASN Penyelenggara SPBE','3'),</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -982,717 +2701,855 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4379DE-85B6-48EF-9D75-B6195519DE6D}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="49.140625" customWidth="1"/>
+    <col min="2" max="2" width="49.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2" t="str">
-        <f>"('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"'),"</f>
+      <c r="E2" t="str">
+        <f>"('"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"'),"</f>
         <v>('Sistem Informasi Arsitektur SPBE','Men PANRB','1'),</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D47" si="0">"('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"'),"</f>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E47" si="0">"('"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"'),"</f>
         <v>('Arsitektur SPBE Nasional','Men PANRB','1'),</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:5" ht="39" thickBot="1">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="D4" t="str">
+      <c r="E4" t="str">
         <f t="shared" si="0"/>
         <v>('Arsitektur SPBE Instansi Pusat','Men Kepala/Lembaga','1'),</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="D5" t="str">
+      <c r="E5" t="str">
         <f t="shared" si="0"/>
         <v>('Arsitektur SPBE Pemerintah Daera','Kepala Daerah','1'),</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="D6" t="str">
+      <c r="E6" t="str">
         <f t="shared" si="0"/>
         <v>('Tim Koordinasi SPBE Nasional','Men PANRB','2'),</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:5" ht="39" thickBot="1">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="D7" t="str">
+      <c r="E7" t="str">
         <f t="shared" si="0"/>
         <v>('Tim Koordinasi SPBE Instansi Pusat','Men Kepala/Lembaga','2'),</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="D8" t="str">
+      <c r="E8" t="str">
         <f t="shared" si="0"/>
         <v>('Tim Koordinasi SPBE Pemerintah Daerah','Kepala Daerah','2'),</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9" t="str">
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="str">
         <f t="shared" si="0"/>
         <v>('Evaluasi SPBE Nasional','Men PANRB','3'),</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10" t="str">
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="str">
         <f t="shared" si="0"/>
         <v>('Evaluasi SPBE Instansi Pusat dan Pemerintah Daerah','Pimpinan K/L/D','3'),</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11" t="str">
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="str">
         <f t="shared" si="0"/>
         <v>('Audit TIK','BPPT/BSSN/ Kominfo','3'),</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12" t="str">
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" t="str">
         <f t="shared" si="0"/>
         <v>('Integrasi Proses Bisnis Pelayanan Publik Pemerintah Pusat','Men PANRB','4'),</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13" t="str">
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="str">
         <f t="shared" si="0"/>
         <v>('Portal Pelayanan Publik Pemerintah Pusat','Men Kominfo','4'),</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:5" ht="39" thickBot="1">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14" t="str">
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" t="str">
         <f t="shared" si="0"/>
         <v>('Integrasi Proses Bisnis Pelayanan Publik Pemerintah Daerah','Men Dalam Negeri','4'),</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15" t="str">
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" t="str">
         <f t="shared" si="0"/>
         <v>('Portal Pelayanan Publik Pemerintah Daerah','Men Kominfo','4'),</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:5" ht="27" customHeight="1" thickBot="1">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>5</v>
       </c>
-      <c r="D16" t="str">
+      <c r="E16" t="str">
         <f t="shared" si="0"/>
         <v>('Integrasi Perencanaan, Penganggran, dan Pengadaan Barang dan Jasa Pemerintah, Akuntabilitas Kinerja Pemantauan dan Evaluasi','Men PPN/Bappenas','5'),</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>5</v>
       </c>
-      <c r="D17" t="str">
+      <c r="E17" t="str">
         <f t="shared" si="0"/>
         <v>('Integrasi Kepegawaian','Men PANRB','5'),</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>5</v>
       </c>
-      <c r="D18" t="str">
+      <c r="E18" t="str">
         <f t="shared" si="0"/>
         <v>('Integrasi Kearsipan','Men PANRB','5'),</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>5</v>
       </c>
-      <c r="D19" t="str">
+      <c r="E19" t="str">
         <f t="shared" si="0"/>
         <v>('Integrasi Pengaduan Publik','Men PANRB','5'),</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>5</v>
       </c>
-      <c r="D20" t="str">
+      <c r="E20" t="str">
         <f t="shared" si="0"/>
         <v>('Portal Pelayanan Administrasi Pemerintahan','Men Kominfo','5'),</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>6</v>
       </c>
-      <c r="D21" t="str">
+      <c r="E21" t="str">
         <f t="shared" si="0"/>
         <v>('Manajemen Layanan SPBE','Men Kominfo','6'),</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:5" ht="15" thickBot="1">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>6</v>
       </c>
-      <c r="D22" t="str">
+      <c r="E22" t="str">
         <f t="shared" si="0"/>
         <v>('Portal Pusat Layanan','Men Kominfo ','6'),</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>7</v>
       </c>
-      <c r="D23" t="str">
+      <c r="E23" t="str">
         <f t="shared" si="0"/>
         <v>('Pusat Data Nasional','Men Kominfo','7'),</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>8</v>
       </c>
-      <c r="D24" t="str">
+      <c r="E24" t="str">
         <f t="shared" si="0"/>
         <v>('Pusat Pengendalian dan Jaringan Intra Pemerintah','Men Kominfo','8'),</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>8</v>
       </c>
-      <c r="D25" t="str">
+      <c r="E25" t="str">
         <f t="shared" si="0"/>
         <v>('Jaringan Intra Instansi Pusat','Pimpinan K/L/D','8'),</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:5" ht="15" thickBot="1">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>8</v>
       </c>
-      <c r="D26" t="str">
+      <c r="E26" t="str">
         <f t="shared" si="0"/>
         <v>('Jaringan Intra Pemerintah Daerah Provinsi','Gubernur','8'),</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>8</v>
       </c>
-      <c r="D27" t="str">
+      <c r="E27" t="str">
         <f t="shared" si="0"/>
         <v>('Jaringan Intra Pemerintah Daerah Kota/Kabupaten','Bupati/Walikota','8'),</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>9</v>
       </c>
-      <c r="D28" t="str">
+      <c r="E28" t="str">
         <f t="shared" si="0"/>
         <v>('Sistem Penghubung Layanan Pemerintah','Men Kominfo','9'),</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>10</v>
       </c>
-      <c r="D29" t="str">
+      <c r="E29" t="str">
         <f t="shared" si="0"/>
         <v>('Jaringan Pita Lebar yang Berkualitas','Men Kominfo','10'),</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>11</v>
       </c>
-      <c r="D30" t="str">
+      <c r="E30" t="str">
         <f t="shared" si="0"/>
         <v>('Cloud Service','Men Kominfo','11'),</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>11</v>
       </c>
-      <c r="D31" t="str">
+      <c r="E31" t="str">
         <f t="shared" si="0"/>
         <v>('Integrasi Kanal Layanan','Men Kominfo','11'),</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>11</v>
       </c>
-      <c r="D32" t="str">
+      <c r="E32" t="str">
         <f t="shared" si="0"/>
         <v>('Repositori Aplikasi Umum','Men Kominfo','11'),</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>11</v>
       </c>
-      <c r="D33" t="str">
+      <c r="E33" t="str">
         <f t="shared" si="0"/>
         <v>('Kajian Teknologi Cloud Service','Kepala BPPT','11'),</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>12</v>
       </c>
-      <c r="D34" t="str">
+      <c r="E34" t="str">
         <f t="shared" si="0"/>
         <v>('Dukungan TIK Portal Data Nasional','Men Kominfo','12'),</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:5" ht="39" thickBot="1">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>12</v>
       </c>
-      <c r="D35" t="str">
+      <c r="E35" t="str">
         <f t="shared" si="0"/>
         <v>('Integrasi Data dan Pengelolaan Portal Data Nasional','Men PPN/Bappenas','12'),</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>13</v>
       </c>
-      <c r="D36" t="str">
+      <c r="E36" t="str">
         <f t="shared" si="0"/>
         <v>('Manajemen Keamanan Informasi','Kepala BSSN','13'),</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>13</v>
       </c>
-      <c r="D37" t="str">
+      <c r="E37" t="str">
         <f t="shared" si="0"/>
         <v>('Teknologi Keamanan Informasi','Kepala BSSN','13'),</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>13</v>
       </c>
-      <c r="D38" t="str">
+      <c r="E38" t="str">
         <f t="shared" si="0"/>
         <v>('Budaya Keamanan Informasi','Kepala BSSN','13'),</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>14</v>
       </c>
-      <c r="D39" t="str">
+      <c r="E39" t="str">
         <f t="shared" si="0"/>
         <v>('Kajian Teknologi Kecerdasan Buatan','Kepala BPPT','14'),</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>14</v>
       </c>
-      <c r="D40" t="str">
+      <c r="E40" t="str">
         <f t="shared" si="0"/>
         <v>('Penerapan Big Data Pemerintah','Men Kominfo','14'),</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>14</v>
       </c>
-      <c r="D41" t="str">
+      <c r="E41" t="str">
         <f t="shared" si="0"/>
         <v>('Penerapan Kecerdasan Buatan','Men Kominfo','14'),</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:5" ht="51.75" thickBot="1">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>15</v>
       </c>
-      <c r="D42" t="str">
+      <c r="E42" t="str">
         <f t="shared" si="0"/>
         <v>('Pelatihan Dan Sosialisasi','Tim Koordinasi SPBE Nasional','15'),</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>16</v>
       </c>
-      <c r="D43" t="str">
+      <c r="E43" t="str">
         <f t="shared" si="0"/>
         <v>('Standar Kompetensi Teknis SPBE','Men PANRB','16'),</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>16</v>
       </c>
-      <c r="D44" t="str">
+      <c r="E44" t="str">
         <f t="shared" si="0"/>
         <v>('Jabatan Fungsional yang Terkait SPBE','Men PANRB','16'),</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="C45" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>16</v>
       </c>
-      <c r="D45" t="str">
+      <c r="E45" t="str">
         <f t="shared" si="0"/>
         <v>('Pola Remunerasi Bidang SPBE','Men PANRB','16'),</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+    <row r="46" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="C46" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>16</v>
       </c>
-      <c r="D46" t="str">
+      <c r="E46" t="str">
         <f t="shared" si="0"/>
         <v>('Pelatihan dan Sertifikasi Kompetensi','Pimpinan K/L/D','16'),</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+    <row r="47" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="C47" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>17</v>
       </c>
-      <c r="D47" t="str">
+      <c r="E47" t="str">
         <f t="shared" si="0"/>
         <v>('Forum Kolaborasi SPBE','Men PANRB','17'),</v>
       </c>
@@ -1710,9 +3567,9 @@
       <selection activeCell="A2" sqref="A2:A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -1723,7 +3580,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1735,7 +3592,7 @@
         <v>('1','in2023110400015'),</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1743,11 +3600,11 @@
         <v>11</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C34" si="0">"('"&amp;A3&amp;"','in20231104"&amp;RIGHT("00000"&amp;B3,5)&amp;"'),"</f>
+        <f t="shared" ref="C3:C33" si="0">"('"&amp;A3&amp;"','in20231104"&amp;RIGHT("00000"&amp;B3,5)&amp;"'),"</f>
         <v>('2','in2023110400011'),</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1759,7 +3616,7 @@
         <v>('3','in2023110400011'),</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1771,7 +3628,7 @@
         <v>('4','in2023110400011'),</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1783,7 +3640,7 @@
         <v>('5','in2023110400019'),</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1795,7 +3652,7 @@
         <v>('6','in2023110400010'),</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1807,7 +3664,7 @@
         <v>('7','in2023110400010'),</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1819,7 +3676,7 @@
         <v>('8','in2023110400029'),</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1831,7 +3688,7 @@
         <v>('8','in2023110400030'),</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1843,7 +3700,7 @@
         <v>('8','in2023110400031'),</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1855,7 +3712,7 @@
         <v>('9','in2023110400029'),</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1867,7 +3724,7 @@
         <v>('9','in2023110400030'),</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>9</v>
       </c>
@@ -1879,7 +3736,7 @@
         <v>('9','in2023110400031'),</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -1891,7 +3748,7 @@
         <v>('10','in2023110400029'),</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>10</v>
       </c>
@@ -1903,7 +3760,7 @@
         <v>('10','in2023110400030'),</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>10</v>
       </c>
@@ -1915,7 +3772,7 @@
         <v>('10','in2023110400031'),</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>11</v>
       </c>
@@ -1927,7 +3784,7 @@
         <v>('11','in2023110400014'),</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>12</v>
       </c>
@@ -1939,7 +3796,7 @@
         <v>('12','in2023110400015'),</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>13</v>
       </c>
@@ -1951,7 +3808,7 @@
         <v>('13','in2023110400014'),</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1963,7 +3820,7 @@
         <v>('20','in2023110400036'),</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1975,7 +3832,7 @@
         <v>('21','in2023110400033'),</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1987,7 +3844,7 @@
         <v>('21','in2023110400035'),</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1999,7 +3856,7 @@
         <v>('22','in2023110400035'),</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>22</v>
       </c>
@@ -2011,7 +3868,7 @@
         <v>('22','in2023110400039'),</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>22</v>
       </c>
@@ -2023,7 +3880,7 @@
         <v>('22','in2023110400040'),</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>23</v>
       </c>
@@ -2035,7 +3892,7 @@
         <v>('23','in2023110400030'),</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>24</v>
       </c>
@@ -2047,7 +3904,7 @@
         <v>('24','in2023110400036'),</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>25</v>
       </c>
@@ -2059,7 +3916,7 @@
         <v>('25','in2023110400037'),</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>26</v>
       </c>
@@ -2071,7 +3928,7 @@
         <v>('26','in2023110400042'),</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>27</v>
       </c>
@@ -2083,7 +3940,7 @@
         <v>('27','in2023110400015'),</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>28</v>
       </c>
@@ -2095,7 +3952,7 @@
         <v>('28','in2023110400028'),</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>29</v>
       </c>
@@ -2114,15 +3971,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69A1A67-3BDB-4145-8BFF-43AA850D1DFF}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B579"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -2130,7 +3990,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2138,11 +3998,4619 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="B64" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>3</v>
+      </c>
+      <c r="B66" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>3</v>
+      </c>
+      <c r="B67" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>3</v>
+      </c>
+      <c r="B69" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>3</v>
+      </c>
+      <c r="B70" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>3</v>
+      </c>
+      <c r="B71" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>3</v>
+      </c>
+      <c r="B72" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>3</v>
+      </c>
+      <c r="B73" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>3</v>
+      </c>
+      <c r="B74" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>3</v>
+      </c>
+      <c r="B75" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>3</v>
+      </c>
+      <c r="B76" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>3</v>
+      </c>
+      <c r="B77" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>3</v>
+      </c>
+      <c r="B78" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>3</v>
+      </c>
+      <c r="B80" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>3</v>
+      </c>
+      <c r="B81" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>3</v>
+      </c>
+      <c r="B83" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>3</v>
+      </c>
+      <c r="B86" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>3</v>
+      </c>
+      <c r="B88" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>3</v>
+      </c>
+      <c r="B89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>3</v>
+      </c>
+      <c r="B90" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>3</v>
+      </c>
+      <c r="B91" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>3</v>
+      </c>
+      <c r="B92" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>3</v>
+      </c>
+      <c r="B93" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>3</v>
+      </c>
+      <c r="B94" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>3</v>
+      </c>
+      <c r="B95" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>4</v>
+      </c>
+      <c r="B96" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>4</v>
+      </c>
+      <c r="B97" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>4</v>
+      </c>
+      <c r="B98" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>4</v>
+      </c>
+      <c r="B99" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>4</v>
+      </c>
+      <c r="B100" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <v>4</v>
+      </c>
+      <c r="B101" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <v>4</v>
+      </c>
+      <c r="B102" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <v>4</v>
+      </c>
+      <c r="B103" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <v>4</v>
+      </c>
+      <c r="B104" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105">
+        <v>4</v>
+      </c>
+      <c r="B105" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106">
+        <v>4</v>
+      </c>
+      <c r="B106" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107">
+        <v>4</v>
+      </c>
+      <c r="B107" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108">
+        <v>4</v>
+      </c>
+      <c r="B108" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109">
+        <v>4</v>
+      </c>
+      <c r="B109" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110">
+        <v>4</v>
+      </c>
+      <c r="B110" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111">
+        <v>4</v>
+      </c>
+      <c r="B111" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112">
+        <v>4</v>
+      </c>
+      <c r="B112" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113">
+        <v>4</v>
+      </c>
+      <c r="B113" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114">
+        <v>4</v>
+      </c>
+      <c r="B114" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115">
+        <v>4</v>
+      </c>
+      <c r="B115" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116">
+        <v>4</v>
+      </c>
+      <c r="B116" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117">
+        <v>4</v>
+      </c>
+      <c r="B117" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118">
+        <v>4</v>
+      </c>
+      <c r="B118" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119">
+        <v>4</v>
+      </c>
+      <c r="B119" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120">
+        <v>4</v>
+      </c>
+      <c r="B120" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121">
+        <v>4</v>
+      </c>
+      <c r="B121" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122">
+        <v>4</v>
+      </c>
+      <c r="B122" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123">
+        <v>4</v>
+      </c>
+      <c r="B123" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124">
+        <v>4</v>
+      </c>
+      <c r="B124" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125">
+        <v>4</v>
+      </c>
+      <c r="B125" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126">
+        <v>4</v>
+      </c>
+      <c r="B126" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127">
+        <v>4</v>
+      </c>
+      <c r="B127" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128">
+        <v>4</v>
+      </c>
+      <c r="B128" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129">
+        <v>4</v>
+      </c>
+      <c r="B129" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130">
+        <v>4</v>
+      </c>
+      <c r="B130" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131">
+        <v>4</v>
+      </c>
+      <c r="B131" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132">
+        <v>4</v>
+      </c>
+      <c r="B132" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133">
+        <v>4</v>
+      </c>
+      <c r="B133" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134">
+        <v>4</v>
+      </c>
+      <c r="B134" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135">
+        <v>4</v>
+      </c>
+      <c r="B135" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136">
+        <v>4</v>
+      </c>
+      <c r="B136" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137">
+        <v>4</v>
+      </c>
+      <c r="B137" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138">
+        <v>4</v>
+      </c>
+      <c r="B138" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139">
+        <v>4</v>
+      </c>
+      <c r="B139" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140">
+        <v>4</v>
+      </c>
+      <c r="B140" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141">
+        <v>4</v>
+      </c>
+      <c r="B141" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142">
+        <v>4</v>
+      </c>
+      <c r="B142" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143">
+        <v>4</v>
+      </c>
+      <c r="B143" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144">
+        <v>4</v>
+      </c>
+      <c r="B144" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145">
+        <v>4</v>
+      </c>
+      <c r="B145" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146">
+        <v>4</v>
+      </c>
+      <c r="B146" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147">
+        <v>4</v>
+      </c>
+      <c r="B147" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148">
+        <v>4</v>
+      </c>
+      <c r="B148" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149">
+        <v>4</v>
+      </c>
+      <c r="B149" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150">
+        <v>4</v>
+      </c>
+      <c r="B150" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151">
+        <v>4</v>
+      </c>
+      <c r="B151" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152">
+        <v>4</v>
+      </c>
+      <c r="B152" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153">
+        <v>4</v>
+      </c>
+      <c r="B153" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154">
+        <v>4</v>
+      </c>
+      <c r="B154" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155">
+        <v>4</v>
+      </c>
+      <c r="B155" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156">
+        <v>4</v>
+      </c>
+      <c r="B156" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157">
+        <v>4</v>
+      </c>
+      <c r="B157" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158">
+        <v>4</v>
+      </c>
+      <c r="B158" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159">
+        <v>4</v>
+      </c>
+      <c r="B159" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160">
+        <v>4</v>
+      </c>
+      <c r="B160" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161">
+        <v>4</v>
+      </c>
+      <c r="B161" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162">
+        <v>4</v>
+      </c>
+      <c r="B162" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163">
+        <v>4</v>
+      </c>
+      <c r="B163" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164">
+        <v>4</v>
+      </c>
+      <c r="B164" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165">
+        <v>4</v>
+      </c>
+      <c r="B165" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166">
+        <v>4</v>
+      </c>
+      <c r="B166" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167">
+        <v>4</v>
+      </c>
+      <c r="B167" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168">
+        <v>4</v>
+      </c>
+      <c r="B168" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169">
+        <v>4</v>
+      </c>
+      <c r="B169" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170">
+        <v>4</v>
+      </c>
+      <c r="B170" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171">
+        <v>4</v>
+      </c>
+      <c r="B171" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172">
+        <v>4</v>
+      </c>
+      <c r="B172" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173">
+        <v>4</v>
+      </c>
+      <c r="B173" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174">
+        <v>4</v>
+      </c>
+      <c r="B174" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175">
+        <v>4</v>
+      </c>
+      <c r="B175" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176">
+        <v>4</v>
+      </c>
+      <c r="B176" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177">
+        <v>4</v>
+      </c>
+      <c r="B177" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178">
+        <v>4</v>
+      </c>
+      <c r="B178" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179">
+        <v>4</v>
+      </c>
+      <c r="B179" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180">
+        <v>4</v>
+      </c>
+      <c r="B180" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181">
+        <v>4</v>
+      </c>
+      <c r="B181" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182">
+        <v>4</v>
+      </c>
+      <c r="B182" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183">
+        <v>4</v>
+      </c>
+      <c r="B183" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184">
+        <v>4</v>
+      </c>
+      <c r="B184" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185">
+        <v>4</v>
+      </c>
+      <c r="B185" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186">
+        <v>4</v>
+      </c>
+      <c r="B186" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187">
+        <v>4</v>
+      </c>
+      <c r="B187" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188">
+        <v>4</v>
+      </c>
+      <c r="B188" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189">
+        <v>4</v>
+      </c>
+      <c r="B189" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190">
+        <v>4</v>
+      </c>
+      <c r="B190" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191">
+        <v>4</v>
+      </c>
+      <c r="B191" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192">
+        <v>4</v>
+      </c>
+      <c r="B192" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193">
+        <v>4</v>
+      </c>
+      <c r="B193" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194">
+        <v>4</v>
+      </c>
+      <c r="B194" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195">
+        <v>4</v>
+      </c>
+      <c r="B195" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196">
+        <v>4</v>
+      </c>
+      <c r="B196" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197">
+        <v>4</v>
+      </c>
+      <c r="B197" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198">
+        <v>4</v>
+      </c>
+      <c r="B198" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199">
+        <v>4</v>
+      </c>
+      <c r="B199" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200">
+        <v>4</v>
+      </c>
+      <c r="B200" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201">
+        <v>4</v>
+      </c>
+      <c r="B201" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202">
+        <v>4</v>
+      </c>
+      <c r="B202" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203">
+        <v>4</v>
+      </c>
+      <c r="B203" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204">
+        <v>4</v>
+      </c>
+      <c r="B204" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205">
+        <v>4</v>
+      </c>
+      <c r="B205" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206">
+        <v>4</v>
+      </c>
+      <c r="B206" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207">
+        <v>4</v>
+      </c>
+      <c r="B207" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208">
+        <v>4</v>
+      </c>
+      <c r="B208" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209">
+        <v>4</v>
+      </c>
+      <c r="B209" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210">
+        <v>4</v>
+      </c>
+      <c r="B210" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211">
+        <v>4</v>
+      </c>
+      <c r="B211" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212">
+        <v>4</v>
+      </c>
+      <c r="B212" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213">
+        <v>4</v>
+      </c>
+      <c r="B213" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214">
+        <v>4</v>
+      </c>
+      <c r="B214" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215">
+        <v>4</v>
+      </c>
+      <c r="B215" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216">
+        <v>4</v>
+      </c>
+      <c r="B216" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217">
+        <v>4</v>
+      </c>
+      <c r="B217" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218">
+        <v>4</v>
+      </c>
+      <c r="B218" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219">
+        <v>4</v>
+      </c>
+      <c r="B219" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220">
+        <v>4</v>
+      </c>
+      <c r="B220" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221">
+        <v>4</v>
+      </c>
+      <c r="B221" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222">
+        <v>4</v>
+      </c>
+      <c r="B222" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223">
+        <v>4</v>
+      </c>
+      <c r="B223" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224">
+        <v>4</v>
+      </c>
+      <c r="B224" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225">
+        <v>4</v>
+      </c>
+      <c r="B225" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226">
+        <v>4</v>
+      </c>
+      <c r="B226" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227">
+        <v>4</v>
+      </c>
+      <c r="B227" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228">
+        <v>4</v>
+      </c>
+      <c r="B228" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229">
+        <v>4</v>
+      </c>
+      <c r="B229" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230">
+        <v>4</v>
+      </c>
+      <c r="B230" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231">
+        <v>4</v>
+      </c>
+      <c r="B231" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232">
+        <v>4</v>
+      </c>
+      <c r="B232" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233">
+        <v>4</v>
+      </c>
+      <c r="B233" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234">
+        <v>4</v>
+      </c>
+      <c r="B234" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235">
+        <v>4</v>
+      </c>
+      <c r="B235" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236">
+        <v>4</v>
+      </c>
+      <c r="B236" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237">
+        <v>4</v>
+      </c>
+      <c r="B237" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238">
+        <v>4</v>
+      </c>
+      <c r="B238" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239">
+        <v>4</v>
+      </c>
+      <c r="B239" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240">
+        <v>4</v>
+      </c>
+      <c r="B240" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241">
+        <v>4</v>
+      </c>
+      <c r="B241" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242">
+        <v>4</v>
+      </c>
+      <c r="B242" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243">
+        <v>4</v>
+      </c>
+      <c r="B243" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244">
+        <v>4</v>
+      </c>
+      <c r="B244" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245">
+        <v>4</v>
+      </c>
+      <c r="B245" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246">
+        <v>4</v>
+      </c>
+      <c r="B246" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247">
+        <v>4</v>
+      </c>
+      <c r="B247" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248">
+        <v>4</v>
+      </c>
+      <c r="B248" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249">
+        <v>4</v>
+      </c>
+      <c r="B249" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250">
+        <v>4</v>
+      </c>
+      <c r="B250" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251">
+        <v>4</v>
+      </c>
+      <c r="B251" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252">
+        <v>4</v>
+      </c>
+      <c r="B252" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253">
+        <v>4</v>
+      </c>
+      <c r="B253" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254">
+        <v>4</v>
+      </c>
+      <c r="B254" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255">
+        <v>4</v>
+      </c>
+      <c r="B255" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256">
+        <v>4</v>
+      </c>
+      <c r="B256" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257">
+        <v>4</v>
+      </c>
+      <c r="B257" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258">
+        <v>4</v>
+      </c>
+      <c r="B258" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259">
+        <v>4</v>
+      </c>
+      <c r="B259" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260">
+        <v>4</v>
+      </c>
+      <c r="B260" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261">
+        <v>4</v>
+      </c>
+      <c r="B261" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262">
+        <v>4</v>
+      </c>
+      <c r="B262" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263">
+        <v>4</v>
+      </c>
+      <c r="B263" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264">
+        <v>4</v>
+      </c>
+      <c r="B264" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265">
+        <v>4</v>
+      </c>
+      <c r="B265" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266">
+        <v>4</v>
+      </c>
+      <c r="B266" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267">
+        <v>4</v>
+      </c>
+      <c r="B267" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268">
+        <v>4</v>
+      </c>
+      <c r="B268" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269">
+        <v>4</v>
+      </c>
+      <c r="B269" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270">
+        <v>4</v>
+      </c>
+      <c r="B270" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271">
+        <v>4</v>
+      </c>
+      <c r="B271" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272">
+        <v>4</v>
+      </c>
+      <c r="B272" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273">
+        <v>4</v>
+      </c>
+      <c r="B273" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274">
+        <v>4</v>
+      </c>
+      <c r="B274" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275">
+        <v>4</v>
+      </c>
+      <c r="B275" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276">
+        <v>4</v>
+      </c>
+      <c r="B276" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277">
+        <v>4</v>
+      </c>
+      <c r="B277" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278">
+        <v>4</v>
+      </c>
+      <c r="B278" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279">
+        <v>4</v>
+      </c>
+      <c r="B279" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280">
+        <v>4</v>
+      </c>
+      <c r="B280" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281">
+        <v>4</v>
+      </c>
+      <c r="B281" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282">
+        <v>4</v>
+      </c>
+      <c r="B282" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283">
+        <v>4</v>
+      </c>
+      <c r="B283" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284">
+        <v>4</v>
+      </c>
+      <c r="B284" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285">
+        <v>4</v>
+      </c>
+      <c r="B285" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286">
+        <v>4</v>
+      </c>
+      <c r="B286" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287">
+        <v>4</v>
+      </c>
+      <c r="B287" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288">
+        <v>4</v>
+      </c>
+      <c r="B288" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289">
+        <v>4</v>
+      </c>
+      <c r="B289" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290">
+        <v>4</v>
+      </c>
+      <c r="B290" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291">
+        <v>4</v>
+      </c>
+      <c r="B291" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292">
+        <v>4</v>
+      </c>
+      <c r="B292" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293">
+        <v>4</v>
+      </c>
+      <c r="B293" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294">
+        <v>4</v>
+      </c>
+      <c r="B294" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295">
+        <v>4</v>
+      </c>
+      <c r="B295" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296">
+        <v>4</v>
+      </c>
+      <c r="B296" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297">
+        <v>4</v>
+      </c>
+      <c r="B297" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298">
+        <v>4</v>
+      </c>
+      <c r="B298" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299">
+        <v>4</v>
+      </c>
+      <c r="B299" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300">
+        <v>4</v>
+      </c>
+      <c r="B300" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301">
+        <v>4</v>
+      </c>
+      <c r="B301" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302">
+        <v>4</v>
+      </c>
+      <c r="B302" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303">
+        <v>4</v>
+      </c>
+      <c r="B303" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304">
+        <v>4</v>
+      </c>
+      <c r="B304" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305">
+        <v>4</v>
+      </c>
+      <c r="B305" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306">
+        <v>4</v>
+      </c>
+      <c r="B306" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307">
+        <v>4</v>
+      </c>
+      <c r="B307" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308">
+        <v>4</v>
+      </c>
+      <c r="B308" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309">
+        <v>4</v>
+      </c>
+      <c r="B309" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310">
+        <v>4</v>
+      </c>
+      <c r="B310" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311">
+        <v>4</v>
+      </c>
+      <c r="B311" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312">
+        <v>4</v>
+      </c>
+      <c r="B312" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313">
+        <v>4</v>
+      </c>
+      <c r="B313" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314">
+        <v>4</v>
+      </c>
+      <c r="B314" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315">
+        <v>4</v>
+      </c>
+      <c r="B315" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316">
+        <v>4</v>
+      </c>
+      <c r="B316" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317">
+        <v>4</v>
+      </c>
+      <c r="B317" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318">
+        <v>4</v>
+      </c>
+      <c r="B318" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319">
+        <v>4</v>
+      </c>
+      <c r="B319" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320">
+        <v>4</v>
+      </c>
+      <c r="B320" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321">
+        <v>4</v>
+      </c>
+      <c r="B321" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322">
+        <v>4</v>
+      </c>
+      <c r="B322" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323">
+        <v>4</v>
+      </c>
+      <c r="B323" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324">
+        <v>4</v>
+      </c>
+      <c r="B324" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325">
+        <v>4</v>
+      </c>
+      <c r="B325" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326">
+        <v>4</v>
+      </c>
+      <c r="B326" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327">
+        <v>4</v>
+      </c>
+      <c r="B327" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328">
+        <v>4</v>
+      </c>
+      <c r="B328" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329">
+        <v>4</v>
+      </c>
+      <c r="B329" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330">
+        <v>4</v>
+      </c>
+      <c r="B330" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331">
+        <v>4</v>
+      </c>
+      <c r="B331" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332">
+        <v>4</v>
+      </c>
+      <c r="B332" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333">
+        <v>4</v>
+      </c>
+      <c r="B333" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334">
+        <v>4</v>
+      </c>
+      <c r="B334" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335">
+        <v>4</v>
+      </c>
+      <c r="B335" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336">
+        <v>4</v>
+      </c>
+      <c r="B336" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337">
+        <v>4</v>
+      </c>
+      <c r="B337" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338">
+        <v>4</v>
+      </c>
+      <c r="B338" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339">
+        <v>4</v>
+      </c>
+      <c r="B339" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340">
+        <v>4</v>
+      </c>
+      <c r="B340" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341">
+        <v>4</v>
+      </c>
+      <c r="B341" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342">
+        <v>4</v>
+      </c>
+      <c r="B342" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343">
+        <v>4</v>
+      </c>
+      <c r="B343" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344">
+        <v>4</v>
+      </c>
+      <c r="B344" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345">
+        <v>4</v>
+      </c>
+      <c r="B345" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346">
+        <v>4</v>
+      </c>
+      <c r="B346" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347">
+        <v>4</v>
+      </c>
+      <c r="B347" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348">
+        <v>4</v>
+      </c>
+      <c r="B348" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349">
+        <v>4</v>
+      </c>
+      <c r="B349" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350">
+        <v>4</v>
+      </c>
+      <c r="B350" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351">
+        <v>4</v>
+      </c>
+      <c r="B351" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352">
+        <v>4</v>
+      </c>
+      <c r="B352" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353">
+        <v>4</v>
+      </c>
+      <c r="B353" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354">
+        <v>4</v>
+      </c>
+      <c r="B354" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355">
+        <v>4</v>
+      </c>
+      <c r="B355" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356">
+        <v>4</v>
+      </c>
+      <c r="B356" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357">
+        <v>4</v>
+      </c>
+      <c r="B357" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358">
+        <v>4</v>
+      </c>
+      <c r="B358" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359">
+        <v>4</v>
+      </c>
+      <c r="B359" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360">
+        <v>4</v>
+      </c>
+      <c r="B360" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361">
+        <v>4</v>
+      </c>
+      <c r="B361" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362">
+        <v>4</v>
+      </c>
+      <c r="B362" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363">
+        <v>4</v>
+      </c>
+      <c r="B363" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364">
+        <v>4</v>
+      </c>
+      <c r="B364" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365">
+        <v>4</v>
+      </c>
+      <c r="B365" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366">
+        <v>4</v>
+      </c>
+      <c r="B366" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367">
+        <v>4</v>
+      </c>
+      <c r="B367" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368">
+        <v>4</v>
+      </c>
+      <c r="B368" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369">
+        <v>4</v>
+      </c>
+      <c r="B369" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370">
+        <v>4</v>
+      </c>
+      <c r="B370" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371">
+        <v>4</v>
+      </c>
+      <c r="B371" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372">
+        <v>4</v>
+      </c>
+      <c r="B372" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373">
+        <v>4</v>
+      </c>
+      <c r="B373" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374">
+        <v>4</v>
+      </c>
+      <c r="B374" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375">
+        <v>4</v>
+      </c>
+      <c r="B375" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376">
+        <v>4</v>
+      </c>
+      <c r="B376" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377">
+        <v>4</v>
+      </c>
+      <c r="B377" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378">
+        <v>4</v>
+      </c>
+      <c r="B378" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379">
+        <v>4</v>
+      </c>
+      <c r="B379" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380">
+        <v>4</v>
+      </c>
+      <c r="B380" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381">
+        <v>4</v>
+      </c>
+      <c r="B381" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382">
+        <v>4</v>
+      </c>
+      <c r="B382" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383">
+        <v>4</v>
+      </c>
+      <c r="B383" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384">
+        <v>4</v>
+      </c>
+      <c r="B384" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385">
+        <v>4</v>
+      </c>
+      <c r="B385" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386">
+        <v>4</v>
+      </c>
+      <c r="B386" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387">
+        <v>4</v>
+      </c>
+      <c r="B387" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388">
+        <v>4</v>
+      </c>
+      <c r="B388" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389">
+        <v>4</v>
+      </c>
+      <c r="B389" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390">
+        <v>4</v>
+      </c>
+      <c r="B390" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391">
+        <v>4</v>
+      </c>
+      <c r="B391" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392">
+        <v>4</v>
+      </c>
+      <c r="B392" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393">
+        <v>4</v>
+      </c>
+      <c r="B393" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394">
+        <v>4</v>
+      </c>
+      <c r="B394" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395">
+        <v>4</v>
+      </c>
+      <c r="B395" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396">
+        <v>4</v>
+      </c>
+      <c r="B396" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397">
+        <v>4</v>
+      </c>
+      <c r="B397" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398">
+        <v>4</v>
+      </c>
+      <c r="B398" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399">
+        <v>4</v>
+      </c>
+      <c r="B399" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400">
+        <v>4</v>
+      </c>
+      <c r="B400" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401">
+        <v>4</v>
+      </c>
+      <c r="B401" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402">
+        <v>4</v>
+      </c>
+      <c r="B402" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403">
+        <v>4</v>
+      </c>
+      <c r="B403" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404">
+        <v>4</v>
+      </c>
+      <c r="B404" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405">
+        <v>4</v>
+      </c>
+      <c r="B405" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406">
+        <v>4</v>
+      </c>
+      <c r="B406" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407">
+        <v>4</v>
+      </c>
+      <c r="B407" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408">
+        <v>4</v>
+      </c>
+      <c r="B408" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409">
+        <v>4</v>
+      </c>
+      <c r="B409" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410">
+        <v>4</v>
+      </c>
+      <c r="B410" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411">
+        <v>4</v>
+      </c>
+      <c r="B411" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412">
+        <v>4</v>
+      </c>
+      <c r="B412" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413">
+        <v>4</v>
+      </c>
+      <c r="B413" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414">
+        <v>4</v>
+      </c>
+      <c r="B414" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415">
+        <v>4</v>
+      </c>
+      <c r="B415" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416">
+        <v>4</v>
+      </c>
+      <c r="B416" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417">
+        <v>4</v>
+      </c>
+      <c r="B417" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418">
+        <v>4</v>
+      </c>
+      <c r="B418" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419">
+        <v>4</v>
+      </c>
+      <c r="B419" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420">
+        <v>4</v>
+      </c>
+      <c r="B420" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421">
+        <v>4</v>
+      </c>
+      <c r="B421" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422">
+        <v>4</v>
+      </c>
+      <c r="B422" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423">
+        <v>4</v>
+      </c>
+      <c r="B423" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424">
+        <v>4</v>
+      </c>
+      <c r="B424" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425">
+        <v>4</v>
+      </c>
+      <c r="B425" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426">
+        <v>4</v>
+      </c>
+      <c r="B426" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427">
+        <v>4</v>
+      </c>
+      <c r="B427" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428">
+        <v>4</v>
+      </c>
+      <c r="B428" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429">
+        <v>4</v>
+      </c>
+      <c r="B429" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430">
+        <v>4</v>
+      </c>
+      <c r="B430" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431">
+        <v>4</v>
+      </c>
+      <c r="B431" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432">
+        <v>4</v>
+      </c>
+      <c r="B432" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433">
+        <v>4</v>
+      </c>
+      <c r="B433" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434">
+        <v>4</v>
+      </c>
+      <c r="B434" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435">
+        <v>4</v>
+      </c>
+      <c r="B435" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436">
+        <v>4</v>
+      </c>
+      <c r="B436" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437">
+        <v>4</v>
+      </c>
+      <c r="B437" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438">
+        <v>4</v>
+      </c>
+      <c r="B438" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439">
+        <v>4</v>
+      </c>
+      <c r="B439" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440">
+        <v>4</v>
+      </c>
+      <c r="B440" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441">
+        <v>4</v>
+      </c>
+      <c r="B441" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442">
+        <v>4</v>
+      </c>
+      <c r="B442" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443">
+        <v>4</v>
+      </c>
+      <c r="B443" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444">
+        <v>4</v>
+      </c>
+      <c r="B444" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445">
+        <v>4</v>
+      </c>
+      <c r="B445" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446">
+        <v>4</v>
+      </c>
+      <c r="B446" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447">
+        <v>4</v>
+      </c>
+      <c r="B447" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448">
+        <v>4</v>
+      </c>
+      <c r="B448" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449">
+        <v>4</v>
+      </c>
+      <c r="B449" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450">
+        <v>4</v>
+      </c>
+      <c r="B450" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451">
+        <v>4</v>
+      </c>
+      <c r="B451" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452">
+        <v>4</v>
+      </c>
+      <c r="B452" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453">
+        <v>4</v>
+      </c>
+      <c r="B453" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454">
+        <v>4</v>
+      </c>
+      <c r="B454" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455">
+        <v>4</v>
+      </c>
+      <c r="B455" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456">
+        <v>4</v>
+      </c>
+      <c r="B456" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457">
+        <v>4</v>
+      </c>
+      <c r="B457" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458">
+        <v>4</v>
+      </c>
+      <c r="B458" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459">
+        <v>4</v>
+      </c>
+      <c r="B459" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460">
+        <v>4</v>
+      </c>
+      <c r="B460" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461">
+        <v>4</v>
+      </c>
+      <c r="B461" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462">
+        <v>4</v>
+      </c>
+      <c r="B462" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463">
+        <v>4</v>
+      </c>
+      <c r="B463" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464">
+        <v>4</v>
+      </c>
+      <c r="B464" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465">
+        <v>4</v>
+      </c>
+      <c r="B465" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466">
+        <v>4</v>
+      </c>
+      <c r="B466" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467">
+        <v>4</v>
+      </c>
+      <c r="B467" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468">
+        <v>4</v>
+      </c>
+      <c r="B468" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469">
+        <v>4</v>
+      </c>
+      <c r="B469" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470">
+        <v>4</v>
+      </c>
+      <c r="B470" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471">
+        <v>4</v>
+      </c>
+      <c r="B471" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472">
+        <v>4</v>
+      </c>
+      <c r="B472" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473">
+        <v>4</v>
+      </c>
+      <c r="B473" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474">
+        <v>4</v>
+      </c>
+      <c r="B474" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475">
+        <v>4</v>
+      </c>
+      <c r="B475" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476">
+        <v>4</v>
+      </c>
+      <c r="B476" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477">
+        <v>4</v>
+      </c>
+      <c r="B477" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478">
+        <v>4</v>
+      </c>
+      <c r="B478" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479">
+        <v>4</v>
+      </c>
+      <c r="B479" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480">
+        <v>4</v>
+      </c>
+      <c r="B480" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481">
+        <v>4</v>
+      </c>
+      <c r="B481" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482">
+        <v>4</v>
+      </c>
+      <c r="B482" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483">
+        <v>4</v>
+      </c>
+      <c r="B483" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484">
+        <v>4</v>
+      </c>
+      <c r="B484" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485">
+        <v>4</v>
+      </c>
+      <c r="B485" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486">
+        <v>4</v>
+      </c>
+      <c r="B486" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487">
+        <v>4</v>
+      </c>
+      <c r="B487" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488">
+        <v>4</v>
+      </c>
+      <c r="B488" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489">
+        <v>4</v>
+      </c>
+      <c r="B489" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490">
+        <v>4</v>
+      </c>
+      <c r="B490" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491">
+        <v>4</v>
+      </c>
+      <c r="B491" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492">
+        <v>4</v>
+      </c>
+      <c r="B492" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493">
+        <v>4</v>
+      </c>
+      <c r="B493" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494">
+        <v>4</v>
+      </c>
+      <c r="B494" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495">
+        <v>4</v>
+      </c>
+      <c r="B495" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496">
+        <v>4</v>
+      </c>
+      <c r="B496" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497">
+        <v>4</v>
+      </c>
+      <c r="B497" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498">
+        <v>4</v>
+      </c>
+      <c r="B498" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499">
+        <v>4</v>
+      </c>
+      <c r="B499" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500">
+        <v>4</v>
+      </c>
+      <c r="B500" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501">
+        <v>4</v>
+      </c>
+      <c r="B501" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502">
+        <v>4</v>
+      </c>
+      <c r="B502" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="A503">
+        <v>4</v>
+      </c>
+      <c r="B503" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504">
+        <v>4</v>
+      </c>
+      <c r="B504" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505">
+        <v>4</v>
+      </c>
+      <c r="B505" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506">
+        <v>4</v>
+      </c>
+      <c r="B506" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507">
+        <v>4</v>
+      </c>
+      <c r="B507" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508">
+        <v>4</v>
+      </c>
+      <c r="B508" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509">
+        <v>4</v>
+      </c>
+      <c r="B509" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510">
+        <v>4</v>
+      </c>
+      <c r="B510" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511">
+        <v>4</v>
+      </c>
+      <c r="B511" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512">
+        <v>4</v>
+      </c>
+      <c r="B512" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513">
+        <v>4</v>
+      </c>
+      <c r="B513" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514">
+        <v>4</v>
+      </c>
+      <c r="B514" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515">
+        <v>4</v>
+      </c>
+      <c r="B515" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516">
+        <v>4</v>
+      </c>
+      <c r="B516" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517">
+        <v>4</v>
+      </c>
+      <c r="B517" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518">
+        <v>4</v>
+      </c>
+      <c r="B518" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519">
+        <v>4</v>
+      </c>
+      <c r="B519" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520">
+        <v>4</v>
+      </c>
+      <c r="B520" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521">
+        <v>4</v>
+      </c>
+      <c r="B521" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="A522">
+        <v>4</v>
+      </c>
+      <c r="B522" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="A523">
+        <v>4</v>
+      </c>
+      <c r="B523" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524">
+        <v>4</v>
+      </c>
+      <c r="B524" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525">
+        <v>4</v>
+      </c>
+      <c r="B525" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526">
+        <v>4</v>
+      </c>
+      <c r="B526" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527">
+        <v>4</v>
+      </c>
+      <c r="B527" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528">
+        <v>4</v>
+      </c>
+      <c r="B528" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529">
+        <v>4</v>
+      </c>
+      <c r="B529" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530">
+        <v>4</v>
+      </c>
+      <c r="B530" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531">
+        <v>4</v>
+      </c>
+      <c r="B531" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532">
+        <v>4</v>
+      </c>
+      <c r="B532" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533">
+        <v>4</v>
+      </c>
+      <c r="B533" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534">
+        <v>4</v>
+      </c>
+      <c r="B534" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535">
+        <v>4</v>
+      </c>
+      <c r="B535" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536">
+        <v>4</v>
+      </c>
+      <c r="B536" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537">
+        <v>4</v>
+      </c>
+      <c r="B537" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538">
+        <v>4</v>
+      </c>
+      <c r="B538" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539">
+        <v>4</v>
+      </c>
+      <c r="B539" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540">
+        <v>4</v>
+      </c>
+      <c r="B540" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541">
+        <v>4</v>
+      </c>
+      <c r="B541" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542">
+        <v>4</v>
+      </c>
+      <c r="B542" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543">
+        <v>4</v>
+      </c>
+      <c r="B543" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544">
+        <v>4</v>
+      </c>
+      <c r="B544" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545">
+        <v>4</v>
+      </c>
+      <c r="B545" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546">
+        <v>4</v>
+      </c>
+      <c r="B546" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547">
+        <v>4</v>
+      </c>
+      <c r="B547" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="A548">
+        <v>4</v>
+      </c>
+      <c r="B548" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549">
+        <v>4</v>
+      </c>
+      <c r="B549" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550">
+        <v>4</v>
+      </c>
+      <c r="B550" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551">
+        <v>4</v>
+      </c>
+      <c r="B551" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552">
+        <v>4</v>
+      </c>
+      <c r="B552" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="A553">
+        <v>4</v>
+      </c>
+      <c r="B553" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
+      <c r="A554">
+        <v>4</v>
+      </c>
+      <c r="B554" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555">
+        <v>4</v>
+      </c>
+      <c r="B555" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556">
+        <v>4</v>
+      </c>
+      <c r="B556" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557">
+        <v>4</v>
+      </c>
+      <c r="B557" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2">
+      <c r="A558">
+        <v>4</v>
+      </c>
+      <c r="B558" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="A559">
+        <v>4</v>
+      </c>
+      <c r="B559" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560">
+        <v>4</v>
+      </c>
+      <c r="B560" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561">
+        <v>4</v>
+      </c>
+      <c r="B561" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562">
+        <v>4</v>
+      </c>
+      <c r="B562" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563">
+        <v>4</v>
+      </c>
+      <c r="B563" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564">
+        <v>4</v>
+      </c>
+      <c r="B564" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565">
+        <v>4</v>
+      </c>
+      <c r="B565" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566">
+        <v>4</v>
+      </c>
+      <c r="B566" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567">
+        <v>4</v>
+      </c>
+      <c r="B567" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568">
+        <v>4</v>
+      </c>
+      <c r="B568" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569">
+        <v>4</v>
+      </c>
+      <c r="B569" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570">
+        <v>4</v>
+      </c>
+      <c r="B570" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571">
+        <v>4</v>
+      </c>
+      <c r="B571" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572">
+        <v>4</v>
+      </c>
+      <c r="B572" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573">
+        <v>4</v>
+      </c>
+      <c r="B573" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574">
+        <v>4</v>
+      </c>
+      <c r="B574" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575">
+        <v>4</v>
+      </c>
+      <c r="B575" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576">
+        <v>4</v>
+      </c>
+      <c r="B576" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577">
+        <v>4</v>
+      </c>
+      <c r="B577" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578">
+        <v>4</v>
+      </c>
+      <c r="B578" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="A579">
+        <v>5</v>
+      </c>
+      <c r="B579" t="s">
         <v>86</v>
       </c>
     </row>

--- a/Data CSV/analisis.xlsx
+++ b/Data CSV/analisis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\clone pca\ta_elaine\Data CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D62993-D509-48E0-898C-84FF2501A0BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B380AE-73E1-4F12-95F1-7C9CAD61D25F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{B73A4F9A-491E-4439-9728-3A59325EE64F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{B73A4F9A-491E-4439-9728-3A59325EE64F}"/>
   </bookViews>
   <sheets>
     <sheet name="analisis_gr" sheetId="1" r:id="rId1"/>
@@ -3721,7 +3721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8DF412-7B5D-44AA-A240-9A8CDA41E4CA}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
@@ -4333,10 +4333,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69A1A67-3BDB-4145-8BFF-43AA850D1DFF}">
-  <dimension ref="A1:BC595"/>
+  <dimension ref="A1:BF595"/>
   <sheetViews>
-    <sheetView topLeftCell="AS1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="BE11" sqref="BE11"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="BF2" sqref="BF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -4345,7 +4345,7 @@
     <col min="6" max="6" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55">
+    <row r="1" spans="1:58">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="2" spans="1:55">
+    <row r="2" spans="1:58">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4625,8 +4625,11 @@
         <f>"('"&amp;BA2&amp;"','"&amp;BB2&amp;"'),"</f>
         <v>('13','i2023110600334'),</v>
       </c>
-    </row>
-    <row r="3" spans="1:55">
+      <c r="BF2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4788,7 +4791,7 @@
         <v>('13','i2023110600335'),</v>
       </c>
     </row>
-    <row r="4" spans="1:55">
+    <row r="4" spans="1:58">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4950,7 +4953,7 @@
         <v>('13','i2023110600336'),</v>
       </c>
     </row>
-    <row r="5" spans="1:55">
+    <row r="5" spans="1:58">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5112,7 +5115,7 @@
         <v>('13','i2023110600337'),</v>
       </c>
     </row>
-    <row r="6" spans="1:55">
+    <row r="6" spans="1:58">
       <c r="A6">
         <v>3</v>
       </c>
@@ -5274,7 +5277,7 @@
         <v>('13','i2023110600338'),</v>
       </c>
     </row>
-    <row r="7" spans="1:55">
+    <row r="7" spans="1:58">
       <c r="A7">
         <v>3</v>
       </c>
@@ -5436,7 +5439,7 @@
         <v>('13','i2023110600339'),</v>
       </c>
     </row>
-    <row r="8" spans="1:55">
+    <row r="8" spans="1:58">
       <c r="A8">
         <v>3</v>
       </c>
@@ -5598,7 +5601,7 @@
         <v>('13','i2023110600340'),</v>
       </c>
     </row>
-    <row r="9" spans="1:55">
+    <row r="9" spans="1:58">
       <c r="A9">
         <v>3</v>
       </c>
@@ -5760,7 +5763,7 @@
         <v>('13','i2023110600341'),</v>
       </c>
     </row>
-    <row r="10" spans="1:55">
+    <row r="10" spans="1:58">
       <c r="A10">
         <v>3</v>
       </c>
@@ -5922,7 +5925,7 @@
         <v>('13','i2023110600342'),</v>
       </c>
     </row>
-    <row r="11" spans="1:55">
+    <row r="11" spans="1:58">
       <c r="A11">
         <v>3</v>
       </c>
@@ -6084,7 +6087,7 @@
         <v>('13','i2023110600343'),</v>
       </c>
     </row>
-    <row r="12" spans="1:55">
+    <row r="12" spans="1:58">
       <c r="A12">
         <v>3</v>
       </c>
@@ -6246,7 +6249,7 @@
         <v>('13','i2023110600344'),</v>
       </c>
     </row>
-    <row r="13" spans="1:55">
+    <row r="13" spans="1:58">
       <c r="A13">
         <v>3</v>
       </c>
@@ -6408,7 +6411,7 @@
         <v>('13','i2023110600345'),</v>
       </c>
     </row>
-    <row r="14" spans="1:55">
+    <row r="14" spans="1:58">
       <c r="A14">
         <v>3</v>
       </c>
@@ -6570,7 +6573,7 @@
         <v>('13','i2023110600346'),</v>
       </c>
     </row>
-    <row r="15" spans="1:55">
+    <row r="15" spans="1:58">
       <c r="A15">
         <v>3</v>
       </c>
@@ -6732,7 +6735,7 @@
         <v>('13','i2023110600347'),</v>
       </c>
     </row>
-    <row r="16" spans="1:55">
+    <row r="16" spans="1:58">
       <c r="A16">
         <v>3</v>
       </c>
@@ -24238,7 +24241,7 @@
         <v>612</v>
       </c>
       <c r="BC195" t="str">
-        <f t="shared" ref="BC195:BC245" si="42">"('"&amp;BA195&amp;"','"&amp;BB195&amp;"'),"</f>
+        <f t="shared" ref="BC195:BC243" si="42">"('"&amp;BA195&amp;"','"&amp;BB195&amp;"'),"</f>
         <v>('13','i2023110600527'),</v>
       </c>
     </row>

--- a/Data CSV/analisis.xlsx
+++ b/Data CSV/analisis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\clone pca\ta_elaine\Data CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B380AE-73E1-4F12-95F1-7C9CAD61D25F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4D4FE0-6853-45F3-BB06-4FD3A947BE58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{B73A4F9A-491E-4439-9728-3A59325EE64F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4600" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4933" uniqueCount="711">
   <si>
     <t>nama</t>
   </si>
@@ -4333,10 +4333,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69A1A67-3BDB-4145-8BFF-43AA850D1DFF}">
-  <dimension ref="A1:BF595"/>
+  <dimension ref="A1:BG595"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="BF2" sqref="BF2"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="AK15" sqref="AK15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -4345,7 +4345,7 @@
     <col min="6" max="6" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58">
+    <row r="1" spans="1:59">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="2" spans="1:58">
+    <row r="2" spans="1:59">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4628,8 +4628,11 @@
       <c r="BF2">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:58">
+      <c r="BG2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4790,8 +4793,11 @@
         <f t="shared" ref="BC3:BC66" si="15">"('"&amp;BA3&amp;"','"&amp;BB3&amp;"'),"</f>
         <v>('13','i2023110600335'),</v>
       </c>
-    </row>
-    <row r="4" spans="1:58">
+      <c r="BG3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:59">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4952,8 +4958,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600336'),</v>
       </c>
-    </row>
-    <row r="5" spans="1:58">
+      <c r="BG4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:59">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5114,8 +5123,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600337'),</v>
       </c>
-    </row>
-    <row r="6" spans="1:58">
+      <c r="BG5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:59">
       <c r="A6">
         <v>3</v>
       </c>
@@ -5276,8 +5288,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600338'),</v>
       </c>
-    </row>
-    <row r="7" spans="1:58">
+      <c r="BG6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:59">
       <c r="A7">
         <v>3</v>
       </c>
@@ -5438,8 +5453,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600339'),</v>
       </c>
-    </row>
-    <row r="8" spans="1:58">
+      <c r="BG7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59">
       <c r="A8">
         <v>3</v>
       </c>
@@ -5600,8 +5618,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600340'),</v>
       </c>
-    </row>
-    <row r="9" spans="1:58">
+      <c r="BG8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59">
       <c r="A9">
         <v>3</v>
       </c>
@@ -5762,8 +5783,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600341'),</v>
       </c>
-    </row>
-    <row r="10" spans="1:58">
+      <c r="BG9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59">
       <c r="A10">
         <v>3</v>
       </c>
@@ -5924,8 +5948,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600342'),</v>
       </c>
-    </row>
-    <row r="11" spans="1:58">
+      <c r="BG10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59">
       <c r="A11">
         <v>3</v>
       </c>
@@ -6086,8 +6113,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600343'),</v>
       </c>
-    </row>
-    <row r="12" spans="1:58">
+      <c r="BG11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:59">
       <c r="A12">
         <v>3</v>
       </c>
@@ -6248,8 +6278,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600344'),</v>
       </c>
-    </row>
-    <row r="13" spans="1:58">
+      <c r="BG12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:59">
       <c r="A13">
         <v>3</v>
       </c>
@@ -6410,8 +6443,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600345'),</v>
       </c>
-    </row>
-    <row r="14" spans="1:58">
+      <c r="BG13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:59">
       <c r="A14">
         <v>3</v>
       </c>
@@ -6572,8 +6608,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600346'),</v>
       </c>
-    </row>
-    <row r="15" spans="1:58">
+      <c r="BG14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:59">
       <c r="A15">
         <v>3</v>
       </c>
@@ -6734,8 +6773,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600347'),</v>
       </c>
-    </row>
-    <row r="16" spans="1:58">
+      <c r="BG15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:59">
       <c r="A16">
         <v>3</v>
       </c>
@@ -6896,8 +6938,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600348'),</v>
       </c>
-    </row>
-    <row r="17" spans="1:55">
+      <c r="BG16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:59">
       <c r="A17">
         <v>3</v>
       </c>
@@ -7058,8 +7103,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600349'),</v>
       </c>
-    </row>
-    <row r="18" spans="1:55">
+      <c r="BG17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:59">
       <c r="A18">
         <v>3</v>
       </c>
@@ -7220,8 +7268,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600350'),</v>
       </c>
-    </row>
-    <row r="19" spans="1:55">
+      <c r="BG18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:59">
       <c r="A19">
         <v>3</v>
       </c>
@@ -7382,8 +7433,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600351'),</v>
       </c>
-    </row>
-    <row r="20" spans="1:55">
+      <c r="BG19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:59">
       <c r="A20">
         <v>3</v>
       </c>
@@ -7544,8 +7598,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600352'),</v>
       </c>
-    </row>
-    <row r="21" spans="1:55">
+      <c r="BG20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:59">
       <c r="A21">
         <v>3</v>
       </c>
@@ -7706,8 +7763,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600353'),</v>
       </c>
-    </row>
-    <row r="22" spans="1:55">
+      <c r="BG21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:59">
       <c r="A22">
         <v>3</v>
       </c>
@@ -7868,8 +7928,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600354'),</v>
       </c>
-    </row>
-    <row r="23" spans="1:55">
+      <c r="BG22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:59">
       <c r="A23">
         <v>3</v>
       </c>
@@ -8030,8 +8093,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600355'),</v>
       </c>
-    </row>
-    <row r="24" spans="1:55">
+      <c r="BG23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:59">
       <c r="A24">
         <v>3</v>
       </c>
@@ -8192,8 +8258,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600356'),</v>
       </c>
-    </row>
-    <row r="25" spans="1:55">
+      <c r="BG24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:59">
       <c r="A25">
         <v>3</v>
       </c>
@@ -8354,8 +8423,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600357'),</v>
       </c>
-    </row>
-    <row r="26" spans="1:55">
+      <c r="BG25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:59">
       <c r="A26">
         <v>3</v>
       </c>
@@ -8516,8 +8588,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600358'),</v>
       </c>
-    </row>
-    <row r="27" spans="1:55">
+      <c r="BG26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:59">
       <c r="A27">
         <v>3</v>
       </c>
@@ -8678,8 +8753,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600359'),</v>
       </c>
-    </row>
-    <row r="28" spans="1:55">
+      <c r="BG27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:59">
       <c r="A28">
         <v>3</v>
       </c>
@@ -8840,8 +8918,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600360'),</v>
       </c>
-    </row>
-    <row r="29" spans="1:55">
+      <c r="BG28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:59">
       <c r="A29">
         <v>3</v>
       </c>
@@ -8952,8 +9033,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600361'),</v>
       </c>
-    </row>
-    <row r="30" spans="1:55">
+      <c r="BG29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:59">
       <c r="A30">
         <v>3</v>
       </c>
@@ -9064,8 +9148,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600362'),</v>
       </c>
-    </row>
-    <row r="31" spans="1:55">
+      <c r="BG30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:59">
       <c r="A31">
         <v>3</v>
       </c>
@@ -9156,8 +9243,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600363'),</v>
       </c>
-    </row>
-    <row r="32" spans="1:55">
+      <c r="BG31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:59">
       <c r="A32">
         <v>3</v>
       </c>
@@ -9248,8 +9338,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600364'),</v>
       </c>
-    </row>
-    <row r="33" spans="1:55">
+      <c r="BG32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:59">
       <c r="A33">
         <v>3</v>
       </c>
@@ -9340,8 +9433,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600365'),</v>
       </c>
-    </row>
-    <row r="34" spans="1:55">
+      <c r="BG33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:59">
       <c r="A34">
         <v>3</v>
       </c>
@@ -9432,8 +9528,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600366'),</v>
       </c>
-    </row>
-    <row r="35" spans="1:55">
+      <c r="BG34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:59">
       <c r="A35">
         <v>3</v>
       </c>
@@ -9524,8 +9623,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600367'),</v>
       </c>
-    </row>
-    <row r="36" spans="1:55">
+      <c r="BG35" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:59">
       <c r="A36">
         <v>3</v>
       </c>
@@ -9616,8 +9718,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600368'),</v>
       </c>
-    </row>
-    <row r="37" spans="1:55">
+      <c r="BG36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:59">
       <c r="A37">
         <v>3</v>
       </c>
@@ -9708,8 +9813,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600369'),</v>
       </c>
-    </row>
-    <row r="38" spans="1:55">
+      <c r="BG37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:59">
       <c r="A38">
         <v>3</v>
       </c>
@@ -9800,8 +9908,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600370'),</v>
       </c>
-    </row>
-    <row r="39" spans="1:55">
+      <c r="BG38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:59">
       <c r="A39">
         <v>3</v>
       </c>
@@ -9892,8 +10003,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600371'),</v>
       </c>
-    </row>
-    <row r="40" spans="1:55">
+      <c r="BG39" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:59">
       <c r="A40">
         <v>3</v>
       </c>
@@ -9984,8 +10098,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600372'),</v>
       </c>
-    </row>
-    <row r="41" spans="1:55">
+      <c r="BG40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:59">
       <c r="A41">
         <v>3</v>
       </c>
@@ -10076,8 +10193,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600373'),</v>
       </c>
-    </row>
-    <row r="42" spans="1:55">
+      <c r="BG41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:59">
       <c r="A42">
         <v>3</v>
       </c>
@@ -10168,8 +10288,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600374'),</v>
       </c>
-    </row>
-    <row r="43" spans="1:55">
+      <c r="BG42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:59">
       <c r="A43">
         <v>3</v>
       </c>
@@ -10260,8 +10383,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600375'),</v>
       </c>
-    </row>
-    <row r="44" spans="1:55">
+      <c r="BG43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:59">
       <c r="A44">
         <v>3</v>
       </c>
@@ -10352,8 +10478,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600376'),</v>
       </c>
-    </row>
-    <row r="45" spans="1:55">
+      <c r="BG44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:59">
       <c r="A45">
         <v>3</v>
       </c>
@@ -10444,8 +10573,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600377'),</v>
       </c>
-    </row>
-    <row r="46" spans="1:55">
+      <c r="BG45" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:59">
       <c r="A46">
         <v>3</v>
       </c>
@@ -10536,8 +10668,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600378'),</v>
       </c>
-    </row>
-    <row r="47" spans="1:55">
+      <c r="BG46" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:59">
       <c r="A47">
         <v>3</v>
       </c>
@@ -10628,8 +10763,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600379'),</v>
       </c>
-    </row>
-    <row r="48" spans="1:55">
+      <c r="BG47" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:59">
       <c r="A48">
         <v>3</v>
       </c>
@@ -10720,8 +10858,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600380'),</v>
       </c>
-    </row>
-    <row r="49" spans="1:55">
+      <c r="BG48" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:59">
       <c r="A49">
         <v>3</v>
       </c>
@@ -10812,8 +10953,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600381'),</v>
       </c>
-    </row>
-    <row r="50" spans="1:55">
+      <c r="BG49" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:59">
       <c r="A50">
         <v>3</v>
       </c>
@@ -10904,8 +11048,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600382'),</v>
       </c>
-    </row>
-    <row r="51" spans="1:55">
+      <c r="BG50" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:59">
       <c r="A51">
         <v>3</v>
       </c>
@@ -10996,8 +11143,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600383'),</v>
       </c>
-    </row>
-    <row r="52" spans="1:55">
+      <c r="BG51" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:59">
       <c r="A52">
         <v>3</v>
       </c>
@@ -11088,8 +11238,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600384'),</v>
       </c>
-    </row>
-    <row r="53" spans="1:55">
+      <c r="BG52" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:59">
       <c r="A53">
         <v>3</v>
       </c>
@@ -11180,8 +11333,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600385'),</v>
       </c>
-    </row>
-    <row r="54" spans="1:55">
+      <c r="BG53" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:59">
       <c r="A54">
         <v>3</v>
       </c>
@@ -11272,8 +11428,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600386'),</v>
       </c>
-    </row>
-    <row r="55" spans="1:55">
+      <c r="BG54" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="1:59">
       <c r="A55">
         <v>3</v>
       </c>
@@ -11364,8 +11523,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600387'),</v>
       </c>
-    </row>
-    <row r="56" spans="1:55">
+      <c r="BG55" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="1:59">
       <c r="A56">
         <v>3</v>
       </c>
@@ -11456,8 +11618,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600388'),</v>
       </c>
-    </row>
-    <row r="57" spans="1:55">
+      <c r="BG56" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:59">
       <c r="A57">
         <v>3</v>
       </c>
@@ -11548,8 +11713,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600389'),</v>
       </c>
-    </row>
-    <row r="58" spans="1:55">
+      <c r="BG57" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="58" spans="1:59">
       <c r="A58">
         <v>3</v>
       </c>
@@ -11640,8 +11808,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600390'),</v>
       </c>
-    </row>
-    <row r="59" spans="1:55">
+      <c r="BG58" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="59" spans="1:59">
       <c r="A59">
         <v>3</v>
       </c>
@@ -11732,8 +11903,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600391'),</v>
       </c>
-    </row>
-    <row r="60" spans="1:55">
+      <c r="BG59" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:59">
       <c r="A60">
         <v>3</v>
       </c>
@@ -11824,8 +11998,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600392'),</v>
       </c>
-    </row>
-    <row r="61" spans="1:55">
+      <c r="BG60" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:59">
       <c r="A61">
         <v>3</v>
       </c>
@@ -11916,8 +12093,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600393'),</v>
       </c>
-    </row>
-    <row r="62" spans="1:55">
+      <c r="BG61" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" spans="1:59">
       <c r="A62">
         <v>3</v>
       </c>
@@ -12008,8 +12188,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600394'),</v>
       </c>
-    </row>
-    <row r="63" spans="1:55">
+      <c r="BG62" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:59">
       <c r="A63">
         <v>3</v>
       </c>
@@ -12100,8 +12283,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600395'),</v>
       </c>
-    </row>
-    <row r="64" spans="1:55">
+      <c r="BG63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="64" spans="1:59">
       <c r="A64">
         <v>3</v>
       </c>
@@ -12192,8 +12378,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600396'),</v>
       </c>
-    </row>
-    <row r="65" spans="1:55">
+      <c r="BG64" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:59">
       <c r="A65">
         <v>3</v>
       </c>
@@ -12284,8 +12473,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600397'),</v>
       </c>
-    </row>
-    <row r="66" spans="1:55">
+      <c r="BG65" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:59">
       <c r="A66">
         <v>3</v>
       </c>
@@ -12376,8 +12568,11 @@
         <f t="shared" si="15"/>
         <v>('13','i2023110600398'),</v>
       </c>
-    </row>
-    <row r="67" spans="1:55">
+      <c r="BG66" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:59">
       <c r="A67">
         <v>3</v>
       </c>
@@ -12468,8 +12663,11 @@
         <f t="shared" ref="BC67:BC130" si="24">"('"&amp;BA67&amp;"','"&amp;BB67&amp;"'),"</f>
         <v>('13','i2023110600399'),</v>
       </c>
-    </row>
-    <row r="68" spans="1:55">
+      <c r="BG67" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68" spans="1:59">
       <c r="A68">
         <v>3</v>
       </c>
@@ -12560,8 +12758,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600400'),</v>
       </c>
-    </row>
-    <row r="69" spans="1:55">
+      <c r="BG68" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="69" spans="1:59">
       <c r="A69">
         <v>3</v>
       </c>
@@ -12652,8 +12853,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600401'),</v>
       </c>
-    </row>
-    <row r="70" spans="1:55">
+      <c r="BG69" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:59">
       <c r="A70">
         <v>3</v>
       </c>
@@ -12744,8 +12948,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600402'),</v>
       </c>
-    </row>
-    <row r="71" spans="1:55">
+      <c r="BG70" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="1:59">
       <c r="A71">
         <v>3</v>
       </c>
@@ -12836,8 +13043,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600403'),</v>
       </c>
-    </row>
-    <row r="72" spans="1:55">
+      <c r="BG71" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:59">
       <c r="A72">
         <v>3</v>
       </c>
@@ -12928,8 +13138,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600404'),</v>
       </c>
-    </row>
-    <row r="73" spans="1:55">
+      <c r="BG72" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="1:59">
       <c r="A73">
         <v>3</v>
       </c>
@@ -13020,8 +13233,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600405'),</v>
       </c>
-    </row>
-    <row r="74" spans="1:55">
+      <c r="BG73" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="74" spans="1:59">
       <c r="A74">
         <v>3</v>
       </c>
@@ -13112,8 +13328,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600406'),</v>
       </c>
-    </row>
-    <row r="75" spans="1:55">
+      <c r="BG74" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="75" spans="1:59">
       <c r="A75">
         <v>3</v>
       </c>
@@ -13204,8 +13423,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600407'),</v>
       </c>
-    </row>
-    <row r="76" spans="1:55">
+      <c r="BG75" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:59">
       <c r="A76">
         <v>3</v>
       </c>
@@ -13296,8 +13518,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600408'),</v>
       </c>
-    </row>
-    <row r="77" spans="1:55">
+      <c r="BG76" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:59">
       <c r="A77">
         <v>3</v>
       </c>
@@ -13388,8 +13613,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600409'),</v>
       </c>
-    </row>
-    <row r="78" spans="1:55">
+      <c r="BG77" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="78" spans="1:59">
       <c r="A78">
         <v>3</v>
       </c>
@@ -13480,8 +13708,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600410'),</v>
       </c>
-    </row>
-    <row r="79" spans="1:55">
+      <c r="BG78" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="79" spans="1:59">
       <c r="A79">
         <v>3</v>
       </c>
@@ -13572,8 +13803,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600411'),</v>
       </c>
-    </row>
-    <row r="80" spans="1:55">
+      <c r="BG79" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="80" spans="1:59">
       <c r="A80">
         <v>3</v>
       </c>
@@ -13664,8 +13898,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600412'),</v>
       </c>
-    </row>
-    <row r="81" spans="1:55">
+      <c r="BG80" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="81" spans="1:59">
       <c r="A81">
         <v>3</v>
       </c>
@@ -13756,8 +13993,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600413'),</v>
       </c>
-    </row>
-    <row r="82" spans="1:55">
+      <c r="BG81" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="82" spans="1:59">
       <c r="A82">
         <v>3</v>
       </c>
@@ -13848,8 +14088,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600414'),</v>
       </c>
-    </row>
-    <row r="83" spans="1:55">
+      <c r="BG82" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:59">
       <c r="A83">
         <v>3</v>
       </c>
@@ -13940,8 +14183,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600415'),</v>
       </c>
-    </row>
-    <row r="84" spans="1:55">
+      <c r="BG83" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="84" spans="1:59">
       <c r="A84">
         <v>3</v>
       </c>
@@ -14032,8 +14278,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600416'),</v>
       </c>
-    </row>
-    <row r="85" spans="1:55">
+      <c r="BG84" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="85" spans="1:59">
       <c r="A85">
         <v>3</v>
       </c>
@@ -14124,8 +14373,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600417'),</v>
       </c>
-    </row>
-    <row r="86" spans="1:55">
+      <c r="BG85" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:59">
       <c r="A86">
         <v>3</v>
       </c>
@@ -14216,8 +14468,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600418'),</v>
       </c>
-    </row>
-    <row r="87" spans="1:55">
+      <c r="BG86" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" spans="1:59">
       <c r="A87">
         <v>3</v>
       </c>
@@ -14308,8 +14563,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600419'),</v>
       </c>
-    </row>
-    <row r="88" spans="1:55">
+      <c r="BG87" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="88" spans="1:59">
       <c r="A88">
         <v>3</v>
       </c>
@@ -14400,8 +14658,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600420'),</v>
       </c>
-    </row>
-    <row r="89" spans="1:55">
+      <c r="BG88" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89" spans="1:59">
       <c r="A89">
         <v>3</v>
       </c>
@@ -14492,8 +14753,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600421'),</v>
       </c>
-    </row>
-    <row r="90" spans="1:55">
+      <c r="BG89" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="90" spans="1:59">
       <c r="A90">
         <v>3</v>
       </c>
@@ -14584,8 +14848,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600422'),</v>
       </c>
-    </row>
-    <row r="91" spans="1:55">
+      <c r="BG90" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="91" spans="1:59">
       <c r="A91">
         <v>3</v>
       </c>
@@ -14676,8 +14943,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600423'),</v>
       </c>
-    </row>
-    <row r="92" spans="1:55">
+      <c r="BG91" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="92" spans="1:59">
       <c r="A92">
         <v>3</v>
       </c>
@@ -14768,8 +15038,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600424'),</v>
       </c>
-    </row>
-    <row r="93" spans="1:55">
+      <c r="BG92" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="93" spans="1:59">
       <c r="A93">
         <v>3</v>
       </c>
@@ -14860,8 +15133,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600425'),</v>
       </c>
-    </row>
-    <row r="94" spans="1:55">
+      <c r="BG93" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="94" spans="1:59">
       <c r="A94">
         <v>3</v>
       </c>
@@ -14952,8 +15228,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600426'),</v>
       </c>
-    </row>
-    <row r="95" spans="1:55">
+      <c r="BG94" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="95" spans="1:59">
       <c r="A95">
         <v>3</v>
       </c>
@@ -15044,8 +15323,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600427'),</v>
       </c>
-    </row>
-    <row r="96" spans="1:55">
+      <c r="BG95" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="96" spans="1:59">
       <c r="A96">
         <v>3</v>
       </c>
@@ -15136,8 +15418,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600428'),</v>
       </c>
-    </row>
-    <row r="97" spans="1:55">
+      <c r="BG96" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="97" spans="1:59">
       <c r="A97">
         <v>3</v>
       </c>
@@ -15228,8 +15513,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600429'),</v>
       </c>
-    </row>
-    <row r="98" spans="1:55">
+      <c r="BG97" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="98" spans="1:59">
       <c r="A98">
         <v>3</v>
       </c>
@@ -15320,8 +15608,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600430'),</v>
       </c>
-    </row>
-    <row r="99" spans="1:55">
+      <c r="BG98" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="99" spans="1:59">
       <c r="A99">
         <v>3</v>
       </c>
@@ -15412,8 +15703,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600431'),</v>
       </c>
-    </row>
-    <row r="100" spans="1:55">
+      <c r="BG99" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="100" spans="1:59">
       <c r="A100">
         <v>3</v>
       </c>
@@ -15504,8 +15798,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600432'),</v>
       </c>
-    </row>
-    <row r="101" spans="1:55">
+      <c r="BG100" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="101" spans="1:59">
       <c r="A101">
         <v>3</v>
       </c>
@@ -15596,8 +15893,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600433'),</v>
       </c>
-    </row>
-    <row r="102" spans="1:55">
+      <c r="BG101" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="102" spans="1:59">
       <c r="A102">
         <v>3</v>
       </c>
@@ -15688,8 +15988,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600434'),</v>
       </c>
-    </row>
-    <row r="103" spans="1:55">
+      <c r="BG102" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="103" spans="1:59">
       <c r="A103">
         <v>3</v>
       </c>
@@ -15780,8 +16083,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600435'),</v>
       </c>
-    </row>
-    <row r="104" spans="1:55">
+      <c r="BG103" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="104" spans="1:59">
       <c r="A104">
         <v>3</v>
       </c>
@@ -15872,8 +16178,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600436'),</v>
       </c>
-    </row>
-    <row r="105" spans="1:55">
+      <c r="BG104" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="105" spans="1:59">
       <c r="A105">
         <v>3</v>
       </c>
@@ -15964,8 +16273,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600437'),</v>
       </c>
-    </row>
-    <row r="106" spans="1:55">
+      <c r="BG105" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="106" spans="1:59">
       <c r="A106">
         <v>3</v>
       </c>
@@ -16056,8 +16368,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600438'),</v>
       </c>
-    </row>
-    <row r="107" spans="1:55">
+      <c r="BG106" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="107" spans="1:59">
       <c r="A107">
         <v>3</v>
       </c>
@@ -16148,8 +16463,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600439'),</v>
       </c>
-    </row>
-    <row r="108" spans="1:55">
+      <c r="BG107" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="108" spans="1:59">
       <c r="A108">
         <v>3</v>
       </c>
@@ -16240,8 +16558,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600440'),</v>
       </c>
-    </row>
-    <row r="109" spans="1:55">
+      <c r="BG108" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="109" spans="1:59">
       <c r="A109">
         <v>3</v>
       </c>
@@ -16332,8 +16653,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600441'),</v>
       </c>
-    </row>
-    <row r="110" spans="1:55">
+      <c r="BG109" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="110" spans="1:59">
       <c r="A110">
         <v>3</v>
       </c>
@@ -16424,8 +16748,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600442'),</v>
       </c>
-    </row>
-    <row r="111" spans="1:55">
+      <c r="BG110" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="111" spans="1:59">
       <c r="A111">
         <v>3</v>
       </c>
@@ -16516,8 +16843,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600443'),</v>
       </c>
-    </row>
-    <row r="112" spans="1:55">
+      <c r="BG111" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="112" spans="1:59">
       <c r="A112">
         <v>3</v>
       </c>
@@ -16608,8 +16938,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600444'),</v>
       </c>
-    </row>
-    <row r="113" spans="1:55">
+      <c r="BG112" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="113" spans="1:59">
       <c r="A113">
         <v>3</v>
       </c>
@@ -16700,8 +17033,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600445'),</v>
       </c>
-    </row>
-    <row r="114" spans="1:55">
+      <c r="BG113" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="114" spans="1:59">
       <c r="A114">
         <v>3</v>
       </c>
@@ -16792,8 +17128,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600446'),</v>
       </c>
-    </row>
-    <row r="115" spans="1:55">
+      <c r="BG114" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="115" spans="1:59">
       <c r="A115">
         <v>3</v>
       </c>
@@ -16884,8 +17223,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600447'),</v>
       </c>
-    </row>
-    <row r="116" spans="1:55">
+      <c r="BG115" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="116" spans="1:59">
       <c r="A116">
         <v>3</v>
       </c>
@@ -16976,8 +17318,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600448'),</v>
       </c>
-    </row>
-    <row r="117" spans="1:55">
+      <c r="BG116" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="117" spans="1:59">
       <c r="A117">
         <v>3</v>
       </c>
@@ -17068,8 +17413,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600449'),</v>
       </c>
-    </row>
-    <row r="118" spans="1:55">
+      <c r="BG117" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="118" spans="1:59">
       <c r="A118">
         <v>3</v>
       </c>
@@ -17160,8 +17508,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600450'),</v>
       </c>
-    </row>
-    <row r="119" spans="1:55">
+      <c r="BG118" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="119" spans="1:59">
       <c r="A119">
         <v>3</v>
       </c>
@@ -17252,8 +17603,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600451'),</v>
       </c>
-    </row>
-    <row r="120" spans="1:55">
+      <c r="BG119" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="120" spans="1:59">
       <c r="A120">
         <v>3</v>
       </c>
@@ -17344,8 +17698,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600452'),</v>
       </c>
-    </row>
-    <row r="121" spans="1:55">
+      <c r="BG120" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="121" spans="1:59">
       <c r="A121">
         <v>3</v>
       </c>
@@ -17436,8 +17793,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600453'),</v>
       </c>
-    </row>
-    <row r="122" spans="1:55">
+      <c r="BG121" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="122" spans="1:59">
       <c r="A122">
         <v>3</v>
       </c>
@@ -17528,8 +17888,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600454'),</v>
       </c>
-    </row>
-    <row r="123" spans="1:55">
+      <c r="BG122" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="123" spans="1:59">
       <c r="A123">
         <v>3</v>
       </c>
@@ -17620,8 +17983,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600455'),</v>
       </c>
-    </row>
-    <row r="124" spans="1:55">
+      <c r="BG123" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="124" spans="1:59">
       <c r="A124">
         <v>3</v>
       </c>
@@ -17712,8 +18078,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600456'),</v>
       </c>
-    </row>
-    <row r="125" spans="1:55">
+      <c r="BG124" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="125" spans="1:59">
       <c r="A125">
         <v>3</v>
       </c>
@@ -17804,8 +18173,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600457'),</v>
       </c>
-    </row>
-    <row r="126" spans="1:55">
+      <c r="BG125" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="126" spans="1:59">
       <c r="A126">
         <v>3</v>
       </c>
@@ -17896,8 +18268,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600458'),</v>
       </c>
-    </row>
-    <row r="127" spans="1:55">
+      <c r="BG126" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="127" spans="1:59">
       <c r="A127">
         <v>3</v>
       </c>
@@ -17988,8 +18363,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600459'),</v>
       </c>
-    </row>
-    <row r="128" spans="1:55">
+      <c r="BG127" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="128" spans="1:59">
       <c r="A128">
         <v>3</v>
       </c>
@@ -18080,8 +18458,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600460'),</v>
       </c>
-    </row>
-    <row r="129" spans="1:55">
+      <c r="BG128" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="129" spans="1:59">
       <c r="A129">
         <v>3</v>
       </c>
@@ -18172,8 +18553,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600461'),</v>
       </c>
-    </row>
-    <row r="130" spans="1:55">
+      <c r="BG129" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="130" spans="1:59">
       <c r="A130">
         <v>3</v>
       </c>
@@ -18264,8 +18648,11 @@
         <f t="shared" si="24"/>
         <v>('13','i2023110600462'),</v>
       </c>
-    </row>
-    <row r="131" spans="1:55">
+      <c r="BG130" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="131" spans="1:59">
       <c r="A131">
         <v>3</v>
       </c>
@@ -18356,8 +18743,11 @@
         <f t="shared" ref="BC131:BC194" si="33">"('"&amp;BA131&amp;"','"&amp;BB131&amp;"'),"</f>
         <v>('13','i2023110600463'),</v>
       </c>
-    </row>
-    <row r="132" spans="1:55">
+      <c r="BG131" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="132" spans="1:59">
       <c r="A132">
         <v>3</v>
       </c>
@@ -18448,8 +18838,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600464'),</v>
       </c>
-    </row>
-    <row r="133" spans="1:55">
+      <c r="BG132" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="133" spans="1:59">
       <c r="A133">
         <v>3</v>
       </c>
@@ -18540,8 +18933,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600465'),</v>
       </c>
-    </row>
-    <row r="134" spans="1:55">
+      <c r="BG133" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="134" spans="1:59">
       <c r="A134">
         <v>3</v>
       </c>
@@ -18632,8 +19028,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600466'),</v>
       </c>
-    </row>
-    <row r="135" spans="1:55">
+      <c r="BG134" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="135" spans="1:59">
       <c r="A135">
         <v>3</v>
       </c>
@@ -18724,8 +19123,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600467'),</v>
       </c>
-    </row>
-    <row r="136" spans="1:55">
+      <c r="BG135" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="136" spans="1:59">
       <c r="A136">
         <v>3</v>
       </c>
@@ -18816,8 +19218,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600468'),</v>
       </c>
-    </row>
-    <row r="137" spans="1:55">
+      <c r="BG136" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="137" spans="1:59">
       <c r="A137">
         <v>3</v>
       </c>
@@ -18908,8 +19313,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600469'),</v>
       </c>
-    </row>
-    <row r="138" spans="1:55">
+      <c r="BG137" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="138" spans="1:59">
       <c r="A138">
         <v>3</v>
       </c>
@@ -19000,8 +19408,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600470'),</v>
       </c>
-    </row>
-    <row r="139" spans="1:55">
+      <c r="BG138" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="139" spans="1:59">
       <c r="A139">
         <v>3</v>
       </c>
@@ -19092,8 +19503,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600471'),</v>
       </c>
-    </row>
-    <row r="140" spans="1:55">
+      <c r="BG139" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="140" spans="1:59">
       <c r="A140">
         <v>3</v>
       </c>
@@ -19184,8 +19598,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600472'),</v>
       </c>
-    </row>
-    <row r="141" spans="1:55">
+      <c r="BG140" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="141" spans="1:59">
       <c r="A141">
         <v>3</v>
       </c>
@@ -19276,8 +19693,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600473'),</v>
       </c>
-    </row>
-    <row r="142" spans="1:55">
+      <c r="BG141" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="142" spans="1:59">
       <c r="A142">
         <v>3</v>
       </c>
@@ -19368,8 +19788,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600474'),</v>
       </c>
-    </row>
-    <row r="143" spans="1:55">
+      <c r="BG142" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="143" spans="1:59">
       <c r="A143">
         <v>3</v>
       </c>
@@ -19460,8 +19883,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600475'),</v>
       </c>
-    </row>
-    <row r="144" spans="1:55">
+      <c r="BG143" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="144" spans="1:59">
       <c r="A144">
         <v>3</v>
       </c>
@@ -19552,8 +19978,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600476'),</v>
       </c>
-    </row>
-    <row r="145" spans="1:55">
+      <c r="BG144" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="145" spans="1:59">
       <c r="A145">
         <v>3</v>
       </c>
@@ -19644,8 +20073,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600477'),</v>
       </c>
-    </row>
-    <row r="146" spans="1:55">
+      <c r="BG145" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="146" spans="1:59">
       <c r="A146">
         <v>3</v>
       </c>
@@ -19736,8 +20168,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600478'),</v>
       </c>
-    </row>
-    <row r="147" spans="1:55">
+      <c r="BG146" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="147" spans="1:59">
       <c r="A147">
         <v>3</v>
       </c>
@@ -19828,8 +20263,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600479'),</v>
       </c>
-    </row>
-    <row r="148" spans="1:55">
+      <c r="BG147" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="148" spans="1:59">
       <c r="A148">
         <v>3</v>
       </c>
@@ -19920,8 +20358,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600480'),</v>
       </c>
-    </row>
-    <row r="149" spans="1:55">
+      <c r="BG148" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="149" spans="1:59">
       <c r="A149">
         <v>3</v>
       </c>
@@ -20012,8 +20453,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600481'),</v>
       </c>
-    </row>
-    <row r="150" spans="1:55">
+      <c r="BG149" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="150" spans="1:59">
       <c r="A150">
         <v>3</v>
       </c>
@@ -20104,8 +20548,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600482'),</v>
       </c>
-    </row>
-    <row r="151" spans="1:55">
+      <c r="BG150" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="151" spans="1:59">
       <c r="A151">
         <v>3</v>
       </c>
@@ -20196,8 +20643,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600483'),</v>
       </c>
-    </row>
-    <row r="152" spans="1:55">
+      <c r="BG151" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="152" spans="1:59">
       <c r="A152">
         <v>3</v>
       </c>
@@ -20288,8 +20738,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600484'),</v>
       </c>
-    </row>
-    <row r="153" spans="1:55">
+      <c r="BG152" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="153" spans="1:59">
       <c r="A153">
         <v>3</v>
       </c>
@@ -20380,8 +20833,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600485'),</v>
       </c>
-    </row>
-    <row r="154" spans="1:55">
+      <c r="BG153" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="154" spans="1:59">
       <c r="A154">
         <v>3</v>
       </c>
@@ -20472,8 +20928,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600486'),</v>
       </c>
-    </row>
-    <row r="155" spans="1:55">
+      <c r="BG154" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="155" spans="1:59">
       <c r="A155">
         <v>3</v>
       </c>
@@ -20564,8 +21023,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600487'),</v>
       </c>
-    </row>
-    <row r="156" spans="1:55">
+      <c r="BG155" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="156" spans="1:59">
       <c r="A156">
         <v>3</v>
       </c>
@@ -20656,8 +21118,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600488'),</v>
       </c>
-    </row>
-    <row r="157" spans="1:55">
+      <c r="BG156" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="157" spans="1:59">
       <c r="A157">
         <v>3</v>
       </c>
@@ -20748,8 +21213,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600489'),</v>
       </c>
-    </row>
-    <row r="158" spans="1:55">
+      <c r="BG157" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="158" spans="1:59">
       <c r="A158">
         <v>3</v>
       </c>
@@ -20840,8 +21308,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600490'),</v>
       </c>
-    </row>
-    <row r="159" spans="1:55">
+      <c r="BG158" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="159" spans="1:59">
       <c r="A159">
         <v>3</v>
       </c>
@@ -20932,8 +21403,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600491'),</v>
       </c>
-    </row>
-    <row r="160" spans="1:55">
+      <c r="BG159" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="160" spans="1:59">
       <c r="A160">
         <v>3</v>
       </c>
@@ -21024,8 +21498,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600492'),</v>
       </c>
-    </row>
-    <row r="161" spans="1:55">
+      <c r="BG160" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="161" spans="1:59">
       <c r="A161">
         <v>3</v>
       </c>
@@ -21116,8 +21593,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600493'),</v>
       </c>
-    </row>
-    <row r="162" spans="1:55">
+      <c r="BG161" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="162" spans="1:59">
       <c r="A162">
         <v>3</v>
       </c>
@@ -21208,8 +21688,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600494'),</v>
       </c>
-    </row>
-    <row r="163" spans="1:55">
+      <c r="BG162" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="163" spans="1:59">
       <c r="A163">
         <v>3</v>
       </c>
@@ -21300,8 +21783,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600495'),</v>
       </c>
-    </row>
-    <row r="164" spans="1:55">
+      <c r="BG163" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="164" spans="1:59">
       <c r="A164">
         <v>3</v>
       </c>
@@ -21392,8 +21878,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600496'),</v>
       </c>
-    </row>
-    <row r="165" spans="1:55">
+      <c r="BG164" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="165" spans="1:59">
       <c r="A165">
         <v>3</v>
       </c>
@@ -21484,8 +21973,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600497'),</v>
       </c>
-    </row>
-    <row r="166" spans="1:55">
+      <c r="BG165" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="166" spans="1:59">
       <c r="A166">
         <v>3</v>
       </c>
@@ -21576,8 +22068,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600498'),</v>
       </c>
-    </row>
-    <row r="167" spans="1:55">
+      <c r="BG166" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="167" spans="1:59">
       <c r="A167">
         <v>3</v>
       </c>
@@ -21668,8 +22163,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600499'),</v>
       </c>
-    </row>
-    <row r="168" spans="1:55">
+      <c r="BG167" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="168" spans="1:59">
       <c r="A168">
         <v>3</v>
       </c>
@@ -21760,8 +22258,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600500'),</v>
       </c>
-    </row>
-    <row r="169" spans="1:55">
+      <c r="BG168" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="169" spans="1:59">
       <c r="A169">
         <v>3</v>
       </c>
@@ -21852,8 +22353,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600501'),</v>
       </c>
-    </row>
-    <row r="170" spans="1:55">
+      <c r="BG169" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="170" spans="1:59">
       <c r="A170">
         <v>3</v>
       </c>
@@ -21944,8 +22448,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600502'),</v>
       </c>
-    </row>
-    <row r="171" spans="1:55">
+      <c r="BG170" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="171" spans="1:59">
       <c r="A171">
         <v>3</v>
       </c>
@@ -22036,8 +22543,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600503'),</v>
       </c>
-    </row>
-    <row r="172" spans="1:55">
+      <c r="BG171" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="172" spans="1:59">
       <c r="A172">
         <v>3</v>
       </c>
@@ -22128,8 +22638,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600504'),</v>
       </c>
-    </row>
-    <row r="173" spans="1:55">
+      <c r="BG172" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="173" spans="1:59">
       <c r="A173">
         <v>3</v>
       </c>
@@ -22220,8 +22733,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600505'),</v>
       </c>
-    </row>
-    <row r="174" spans="1:55">
+      <c r="BG173" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="174" spans="1:59">
       <c r="A174">
         <v>3</v>
       </c>
@@ -22312,8 +22828,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600506'),</v>
       </c>
-    </row>
-    <row r="175" spans="1:55">
+      <c r="BG174" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="175" spans="1:59">
       <c r="A175">
         <v>3</v>
       </c>
@@ -22404,8 +22923,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600507'),</v>
       </c>
-    </row>
-    <row r="176" spans="1:55">
+      <c r="BG175" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="176" spans="1:59">
       <c r="A176">
         <v>3</v>
       </c>
@@ -22496,8 +23018,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600508'),</v>
       </c>
-    </row>
-    <row r="177" spans="1:55">
+      <c r="BG176" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="177" spans="1:59">
       <c r="A177">
         <v>3</v>
       </c>
@@ -22588,8 +23113,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600509'),</v>
       </c>
-    </row>
-    <row r="178" spans="1:55">
+      <c r="BG177" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="178" spans="1:59">
       <c r="A178">
         <v>3</v>
       </c>
@@ -22680,8 +23208,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600510'),</v>
       </c>
-    </row>
-    <row r="179" spans="1:55">
+      <c r="BG178" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="179" spans="1:59">
       <c r="A179">
         <v>3</v>
       </c>
@@ -22772,8 +23303,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600511'),</v>
       </c>
-    </row>
-    <row r="180" spans="1:55">
+      <c r="BG179" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="180" spans="1:59">
       <c r="A180">
         <v>3</v>
       </c>
@@ -22864,8 +23398,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600512'),</v>
       </c>
-    </row>
-    <row r="181" spans="1:55">
+      <c r="BG180" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="181" spans="1:59">
       <c r="A181">
         <v>3</v>
       </c>
@@ -22956,8 +23493,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600513'),</v>
       </c>
-    </row>
-    <row r="182" spans="1:55">
+      <c r="BG181" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="182" spans="1:59">
       <c r="A182">
         <v>3</v>
       </c>
@@ -23048,8 +23588,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600514'),</v>
       </c>
-    </row>
-    <row r="183" spans="1:55">
+      <c r="BG182" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="183" spans="1:59">
       <c r="A183">
         <v>3</v>
       </c>
@@ -23140,8 +23683,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600515'),</v>
       </c>
-    </row>
-    <row r="184" spans="1:55">
+      <c r="BG183" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="184" spans="1:59">
       <c r="A184">
         <v>3</v>
       </c>
@@ -23232,8 +23778,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600516'),</v>
       </c>
-    </row>
-    <row r="185" spans="1:55">
+      <c r="BG184" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="185" spans="1:59">
       <c r="A185">
         <v>3</v>
       </c>
@@ -23324,8 +23873,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600517'),</v>
       </c>
-    </row>
-    <row r="186" spans="1:55">
+      <c r="BG185" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="186" spans="1:59">
       <c r="A186">
         <v>3</v>
       </c>
@@ -23416,8 +23968,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600518'),</v>
       </c>
-    </row>
-    <row r="187" spans="1:55">
+      <c r="BG186" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="187" spans="1:59">
       <c r="A187">
         <v>3</v>
       </c>
@@ -23508,8 +24063,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600519'),</v>
       </c>
-    </row>
-    <row r="188" spans="1:55">
+      <c r="BG187" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="188" spans="1:59">
       <c r="A188">
         <v>3</v>
       </c>
@@ -23600,8 +24158,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600520'),</v>
       </c>
-    </row>
-    <row r="189" spans="1:55">
+      <c r="BG188" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="189" spans="1:59">
       <c r="A189">
         <v>3</v>
       </c>
@@ -23692,8 +24253,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600521'),</v>
       </c>
-    </row>
-    <row r="190" spans="1:55">
+      <c r="BG189" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="190" spans="1:59">
       <c r="A190">
         <v>3</v>
       </c>
@@ -23784,8 +24348,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600522'),</v>
       </c>
-    </row>
-    <row r="191" spans="1:55">
+      <c r="BG190" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="191" spans="1:59">
       <c r="A191">
         <v>3</v>
       </c>
@@ -23876,8 +24443,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600523'),</v>
       </c>
-    </row>
-    <row r="192" spans="1:55">
+      <c r="BG191" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="192" spans="1:59">
       <c r="A192">
         <v>3</v>
       </c>
@@ -23968,8 +24538,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600524'),</v>
       </c>
-    </row>
-    <row r="193" spans="1:55">
+      <c r="BG192" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="193" spans="1:59">
       <c r="A193">
         <v>3</v>
       </c>
@@ -24060,8 +24633,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600525'),</v>
       </c>
-    </row>
-    <row r="194" spans="1:55">
+      <c r="BG193" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="194" spans="1:59">
       <c r="A194">
         <v>3</v>
       </c>
@@ -24152,8 +24728,11 @@
         <f t="shared" si="33"/>
         <v>('13','i2023110600526'),</v>
       </c>
-    </row>
-    <row r="195" spans="1:55">
+      <c r="BG194" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="195" spans="1:59">
       <c r="A195">
         <v>3</v>
       </c>
@@ -24244,8 +24823,11 @@
         <f t="shared" ref="BC195:BC243" si="42">"('"&amp;BA195&amp;"','"&amp;BB195&amp;"'),"</f>
         <v>('13','i2023110600527'),</v>
       </c>
-    </row>
-    <row r="196" spans="1:55">
+      <c r="BG195" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="196" spans="1:59">
       <c r="A196">
         <v>3</v>
       </c>
@@ -24336,8 +24918,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600528'),</v>
       </c>
-    </row>
-    <row r="197" spans="1:55">
+      <c r="BG196" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="197" spans="1:59">
       <c r="A197">
         <v>3</v>
       </c>
@@ -24428,8 +25013,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600529'),</v>
       </c>
-    </row>
-    <row r="198" spans="1:55">
+      <c r="BG197" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="198" spans="1:59">
       <c r="A198">
         <v>3</v>
       </c>
@@ -24520,8 +25108,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600530'),</v>
       </c>
-    </row>
-    <row r="199" spans="1:55">
+      <c r="BG198" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="199" spans="1:59">
       <c r="A199">
         <v>3</v>
       </c>
@@ -24612,8 +25203,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600531'),</v>
       </c>
-    </row>
-    <row r="200" spans="1:55">
+      <c r="BG199" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="200" spans="1:59">
       <c r="A200">
         <v>3</v>
       </c>
@@ -24704,8 +25298,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600532'),</v>
       </c>
-    </row>
-    <row r="201" spans="1:55">
+      <c r="BG200" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="201" spans="1:59">
       <c r="A201">
         <v>3</v>
       </c>
@@ -24796,8 +25393,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600533'),</v>
       </c>
-    </row>
-    <row r="202" spans="1:55">
+      <c r="BG201" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="202" spans="1:59">
       <c r="A202">
         <v>3</v>
       </c>
@@ -24888,8 +25488,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600534'),</v>
       </c>
-    </row>
-    <row r="203" spans="1:55">
+      <c r="BG202" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="203" spans="1:59">
       <c r="A203">
         <v>3</v>
       </c>
@@ -24980,8 +25583,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600535'),</v>
       </c>
-    </row>
-    <row r="204" spans="1:55">
+      <c r="BG203" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="204" spans="1:59">
       <c r="A204">
         <v>3</v>
       </c>
@@ -25072,8 +25678,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600536'),</v>
       </c>
-    </row>
-    <row r="205" spans="1:55">
+      <c r="BG204" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="205" spans="1:59">
       <c r="A205">
         <v>3</v>
       </c>
@@ -25164,8 +25773,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600537'),</v>
       </c>
-    </row>
-    <row r="206" spans="1:55">
+      <c r="BG205" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="206" spans="1:59">
       <c r="A206">
         <v>3</v>
       </c>
@@ -25256,8 +25868,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600538'),</v>
       </c>
-    </row>
-    <row r="207" spans="1:55">
+      <c r="BG206" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="207" spans="1:59">
       <c r="A207">
         <v>3</v>
       </c>
@@ -25348,8 +25963,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600539'),</v>
       </c>
-    </row>
-    <row r="208" spans="1:55">
+      <c r="BG207" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="208" spans="1:59">
       <c r="A208">
         <v>3</v>
       </c>
@@ -25440,8 +26058,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600540'),</v>
       </c>
-    </row>
-    <row r="209" spans="1:55">
+      <c r="BG208" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="209" spans="1:59">
       <c r="A209">
         <v>3</v>
       </c>
@@ -25532,8 +26153,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600541'),</v>
       </c>
-    </row>
-    <row r="210" spans="1:55">
+      <c r="BG209" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="210" spans="1:59">
       <c r="A210">
         <v>3</v>
       </c>
@@ -25624,8 +26248,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600542'),</v>
       </c>
-    </row>
-    <row r="211" spans="1:55">
+      <c r="BG210" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="211" spans="1:59">
       <c r="A211">
         <v>3</v>
       </c>
@@ -25716,8 +26343,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600543'),</v>
       </c>
-    </row>
-    <row r="212" spans="1:55">
+      <c r="BG211" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="212" spans="1:59">
       <c r="A212">
         <v>3</v>
       </c>
@@ -25808,8 +26438,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600544'),</v>
       </c>
-    </row>
-    <row r="213" spans="1:55">
+      <c r="BG212" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="213" spans="1:59">
       <c r="A213">
         <v>3</v>
       </c>
@@ -25900,8 +26533,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600545'),</v>
       </c>
-    </row>
-    <row r="214" spans="1:55">
+      <c r="BG213" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="214" spans="1:59">
       <c r="A214">
         <v>3</v>
       </c>
@@ -25992,8 +26628,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600546'),</v>
       </c>
-    </row>
-    <row r="215" spans="1:55">
+      <c r="BG214" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="215" spans="1:59">
       <c r="A215">
         <v>3</v>
       </c>
@@ -26084,8 +26723,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600547'),</v>
       </c>
-    </row>
-    <row r="216" spans="1:55">
+      <c r="BG215" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="216" spans="1:59">
       <c r="A216">
         <v>3</v>
       </c>
@@ -26176,8 +26818,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600548'),</v>
       </c>
-    </row>
-    <row r="217" spans="1:55">
+      <c r="BG216" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="217" spans="1:59">
       <c r="A217">
         <v>3</v>
       </c>
@@ -26268,8 +26913,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600549'),</v>
       </c>
-    </row>
-    <row r="218" spans="1:55">
+      <c r="BG217" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="218" spans="1:59">
       <c r="A218">
         <v>3</v>
       </c>
@@ -26360,8 +27008,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600550'),</v>
       </c>
-    </row>
-    <row r="219" spans="1:55">
+      <c r="BG218" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="219" spans="1:59">
       <c r="A219">
         <v>3</v>
       </c>
@@ -26452,8 +27103,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600551'),</v>
       </c>
-    </row>
-    <row r="220" spans="1:55">
+      <c r="BG219" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="220" spans="1:59">
       <c r="A220">
         <v>3</v>
       </c>
@@ -26544,8 +27198,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600552'),</v>
       </c>
-    </row>
-    <row r="221" spans="1:55">
+      <c r="BG220" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="221" spans="1:59">
       <c r="A221">
         <v>3</v>
       </c>
@@ -26636,8 +27293,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600553'),</v>
       </c>
-    </row>
-    <row r="222" spans="1:55">
+      <c r="BG221" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="222" spans="1:59">
       <c r="A222">
         <v>3</v>
       </c>
@@ -26728,8 +27388,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600554'),</v>
       </c>
-    </row>
-    <row r="223" spans="1:55">
+      <c r="BG222" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="223" spans="1:59">
       <c r="A223">
         <v>3</v>
       </c>
@@ -26820,8 +27483,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600555'),</v>
       </c>
-    </row>
-    <row r="224" spans="1:55">
+      <c r="BG223" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="224" spans="1:59">
       <c r="A224">
         <v>3</v>
       </c>
@@ -26912,8 +27578,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600556'),</v>
       </c>
-    </row>
-    <row r="225" spans="1:55">
+      <c r="BG224" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="225" spans="1:59">
       <c r="A225">
         <v>3</v>
       </c>
@@ -27004,8 +27673,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600557'),</v>
       </c>
-    </row>
-    <row r="226" spans="1:55">
+      <c r="BG225" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="226" spans="1:59">
       <c r="A226">
         <v>3</v>
       </c>
@@ -27096,8 +27768,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600558'),</v>
       </c>
-    </row>
-    <row r="227" spans="1:55">
+      <c r="BG226" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="227" spans="1:59">
       <c r="A227">
         <v>3</v>
       </c>
@@ -27188,8 +27863,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600559'),</v>
       </c>
-    </row>
-    <row r="228" spans="1:55">
+      <c r="BG227" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="228" spans="1:59">
       <c r="A228">
         <v>3</v>
       </c>
@@ -27280,8 +27958,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600560'),</v>
       </c>
-    </row>
-    <row r="229" spans="1:55">
+      <c r="BG228" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="229" spans="1:59">
       <c r="A229">
         <v>3</v>
       </c>
@@ -27372,8 +28053,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600561'),</v>
       </c>
-    </row>
-    <row r="230" spans="1:55">
+      <c r="BG229" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="230" spans="1:59">
       <c r="A230">
         <v>3</v>
       </c>
@@ -27464,8 +28148,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600562'),</v>
       </c>
-    </row>
-    <row r="231" spans="1:55">
+      <c r="BG230" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="231" spans="1:59">
       <c r="A231">
         <v>3</v>
       </c>
@@ -27556,8 +28243,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600563'),</v>
       </c>
-    </row>
-    <row r="232" spans="1:55">
+      <c r="BG231" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="232" spans="1:59">
       <c r="A232">
         <v>3</v>
       </c>
@@ -27648,8 +28338,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600564'),</v>
       </c>
-    </row>
-    <row r="233" spans="1:55">
+      <c r="BG232" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="233" spans="1:59">
       <c r="A233">
         <v>3</v>
       </c>
@@ -27740,8 +28433,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600565'),</v>
       </c>
-    </row>
-    <row r="234" spans="1:55">
+      <c r="BG233" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="234" spans="1:59">
       <c r="A234">
         <v>3</v>
       </c>
@@ -27832,8 +28528,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600566'),</v>
       </c>
-    </row>
-    <row r="235" spans="1:55">
+      <c r="BG234" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="235" spans="1:59">
       <c r="A235">
         <v>3</v>
       </c>
@@ -27924,8 +28623,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600567'),</v>
       </c>
-    </row>
-    <row r="236" spans="1:55">
+      <c r="BG235" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="236" spans="1:59">
       <c r="A236">
         <v>3</v>
       </c>
@@ -28016,8 +28718,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600568'),</v>
       </c>
-    </row>
-    <row r="237" spans="1:55">
+      <c r="BG236" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="237" spans="1:59">
       <c r="A237">
         <v>3</v>
       </c>
@@ -28108,8 +28813,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600569'),</v>
       </c>
-    </row>
-    <row r="238" spans="1:55">
+      <c r="BG237" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="238" spans="1:59">
       <c r="A238">
         <v>3</v>
       </c>
@@ -28200,8 +28908,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600570'),</v>
       </c>
-    </row>
-    <row r="239" spans="1:55">
+      <c r="BG238" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="239" spans="1:59">
       <c r="A239">
         <v>3</v>
       </c>
@@ -28292,8 +29003,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600571'),</v>
       </c>
-    </row>
-    <row r="240" spans="1:55">
+      <c r="BG239" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="240" spans="1:59">
       <c r="A240">
         <v>3</v>
       </c>
@@ -28384,8 +29098,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600572'),</v>
       </c>
-    </row>
-    <row r="241" spans="1:55">
+      <c r="BG240" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="241" spans="1:59">
       <c r="A241">
         <v>3</v>
       </c>
@@ -28476,8 +29193,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600573'),</v>
       </c>
-    </row>
-    <row r="242" spans="1:55">
+      <c r="BG241" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="242" spans="1:59">
       <c r="A242">
         <v>3</v>
       </c>
@@ -28568,8 +29288,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600574'),</v>
       </c>
-    </row>
-    <row r="243" spans="1:55">
+      <c r="BG242" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="243" spans="1:59">
       <c r="A243">
         <v>3</v>
       </c>
@@ -28660,8 +29383,11 @@
         <f t="shared" si="42"/>
         <v>('13','i2023110600575'),</v>
       </c>
-    </row>
-    <row r="244" spans="1:55">
+      <c r="BG243" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="244" spans="1:59">
       <c r="A244">
         <v>3</v>
       </c>
@@ -28732,8 +29458,11 @@
         <f t="shared" si="40"/>
         <v>('11','i2023110600243'),</v>
       </c>
-    </row>
-    <row r="245" spans="1:55">
+      <c r="BG244" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="245" spans="1:59">
       <c r="A245">
         <v>3</v>
       </c>
@@ -28804,8 +29533,11 @@
         <f t="shared" si="40"/>
         <v>('11','i2023110600244'),</v>
       </c>
-    </row>
-    <row r="246" spans="1:55">
+      <c r="BG245" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="246" spans="1:59">
       <c r="A246">
         <v>3</v>
       </c>
@@ -28876,8 +29608,11 @@
         <f t="shared" si="40"/>
         <v>('11','i2023110600245'),</v>
       </c>
-    </row>
-    <row r="247" spans="1:55">
+      <c r="BG246" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="247" spans="1:59">
       <c r="A247">
         <v>3</v>
       </c>
@@ -28948,8 +29683,11 @@
         <f t="shared" si="40"/>
         <v>('11','i2023110600246'),</v>
       </c>
-    </row>
-    <row r="248" spans="1:55">
+      <c r="BG247" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="248" spans="1:59">
       <c r="A248">
         <v>3</v>
       </c>
@@ -29020,8 +29758,11 @@
         <f t="shared" si="40"/>
         <v>('11','i2023110600247'),</v>
       </c>
-    </row>
-    <row r="249" spans="1:55">
+      <c r="BG248" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="249" spans="1:59">
       <c r="A249">
         <v>3</v>
       </c>
@@ -29092,8 +29833,11 @@
         <f t="shared" si="40"/>
         <v>('11','i2023110600248'),</v>
       </c>
-    </row>
-    <row r="250" spans="1:55">
+      <c r="BG249" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="250" spans="1:59">
       <c r="A250">
         <v>3</v>
       </c>
@@ -29164,8 +29908,11 @@
         <f t="shared" si="40"/>
         <v>('11','i2023110600249'),</v>
       </c>
-    </row>
-    <row r="251" spans="1:55">
+      <c r="BG250" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="251" spans="1:59">
       <c r="A251">
         <v>3</v>
       </c>
@@ -29236,8 +29983,11 @@
         <f t="shared" si="40"/>
         <v>('11','i2023110600250'),</v>
       </c>
-    </row>
-    <row r="252" spans="1:55">
+      <c r="BG251" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="252" spans="1:59">
       <c r="A252">
         <v>3</v>
       </c>
@@ -29308,8 +30058,11 @@
         <f t="shared" si="40"/>
         <v>('11','i2023110600251'),</v>
       </c>
-    </row>
-    <row r="253" spans="1:55">
+      <c r="BG252" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="253" spans="1:59">
       <c r="A253">
         <v>3</v>
       </c>
@@ -29380,8 +30133,11 @@
         <f t="shared" si="40"/>
         <v>('11','i2023110600252'),</v>
       </c>
-    </row>
-    <row r="254" spans="1:55">
+      <c r="BG253" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="254" spans="1:59">
       <c r="A254">
         <v>3</v>
       </c>
@@ -29452,8 +30208,11 @@
         <f t="shared" si="40"/>
         <v>('11','i2023110600253'),</v>
       </c>
-    </row>
-    <row r="255" spans="1:55">
+      <c r="BG254" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="255" spans="1:59">
       <c r="A255">
         <v>3</v>
       </c>
@@ -29524,8 +30283,11 @@
         <f t="shared" si="40"/>
         <v>('11','i2023110600254'),</v>
       </c>
-    </row>
-    <row r="256" spans="1:55">
+      <c r="BG255" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="256" spans="1:59">
       <c r="A256">
         <v>3</v>
       </c>
@@ -29596,8 +30358,11 @@
         <f t="shared" si="40"/>
         <v>('11','i2023110600255'),</v>
       </c>
-    </row>
-    <row r="257" spans="1:39">
+      <c r="BG256" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="257" spans="1:59">
       <c r="A257">
         <v>3</v>
       </c>
@@ -29668,8 +30433,11 @@
         <f t="shared" si="40"/>
         <v>('11','i2023110600256'),</v>
       </c>
-    </row>
-    <row r="258" spans="1:39">
+      <c r="BG257" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="258" spans="1:59">
       <c r="A258">
         <v>3</v>
       </c>
@@ -29740,8 +30508,11 @@
         <f t="shared" si="40"/>
         <v>('11','i2023110600257'),</v>
       </c>
-    </row>
-    <row r="259" spans="1:39">
+      <c r="BG258" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="259" spans="1:59">
       <c r="A259">
         <v>3</v>
       </c>
@@ -29812,8 +30583,11 @@
         <f t="shared" ref="AM259:AM322" si="49">"('"&amp;AK259&amp;"','"&amp;AL259&amp;"'),"</f>
         <v>('11','i2023110600258'),</v>
       </c>
-    </row>
-    <row r="260" spans="1:39">
+      <c r="BG259" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="260" spans="1:59">
       <c r="A260">
         <v>3</v>
       </c>
@@ -29884,8 +30658,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600259'),</v>
       </c>
-    </row>
-    <row r="261" spans="1:39">
+      <c r="BG260" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="261" spans="1:59">
       <c r="A261">
         <v>3</v>
       </c>
@@ -29956,8 +30733,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600260'),</v>
       </c>
-    </row>
-    <row r="262" spans="1:39">
+      <c r="BG261" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="262" spans="1:59">
       <c r="A262">
         <v>3</v>
       </c>
@@ -30028,8 +30808,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600261'),</v>
       </c>
-    </row>
-    <row r="263" spans="1:39">
+      <c r="BG262" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="263" spans="1:59">
       <c r="A263">
         <v>3</v>
       </c>
@@ -30100,8 +30883,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600262'),</v>
       </c>
-    </row>
-    <row r="264" spans="1:39">
+      <c r="BG263" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="264" spans="1:59">
       <c r="A264">
         <v>3</v>
       </c>
@@ -30172,8 +30958,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600263'),</v>
       </c>
-    </row>
-    <row r="265" spans="1:39">
+      <c r="BG264" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="265" spans="1:59">
       <c r="A265">
         <v>3</v>
       </c>
@@ -30244,8 +31033,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600264'),</v>
       </c>
-    </row>
-    <row r="266" spans="1:39">
+      <c r="BG265" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="266" spans="1:59">
       <c r="A266">
         <v>3</v>
       </c>
@@ -30316,8 +31108,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600265'),</v>
       </c>
-    </row>
-    <row r="267" spans="1:39">
+      <c r="BG266" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="267" spans="1:59">
       <c r="A267">
         <v>3</v>
       </c>
@@ -30388,8 +31183,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600266'),</v>
       </c>
-    </row>
-    <row r="268" spans="1:39">
+      <c r="BG267" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="268" spans="1:59">
       <c r="A268">
         <v>3</v>
       </c>
@@ -30460,8 +31258,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600267'),</v>
       </c>
-    </row>
-    <row r="269" spans="1:39">
+      <c r="BG268" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="269" spans="1:59">
       <c r="A269">
         <v>3</v>
       </c>
@@ -30532,8 +31333,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600268'),</v>
       </c>
-    </row>
-    <row r="270" spans="1:39">
+      <c r="BG269" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="270" spans="1:59">
       <c r="A270">
         <v>3</v>
       </c>
@@ -30604,8 +31408,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600269'),</v>
       </c>
-    </row>
-    <row r="271" spans="1:39">
+      <c r="BG270" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="271" spans="1:59">
       <c r="A271">
         <v>3</v>
       </c>
@@ -30676,8 +31483,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600270'),</v>
       </c>
-    </row>
-    <row r="272" spans="1:39">
+      <c r="BG271" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="272" spans="1:59">
       <c r="A272">
         <v>3</v>
       </c>
@@ -30748,8 +31558,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600271'),</v>
       </c>
-    </row>
-    <row r="273" spans="1:39">
+      <c r="BG272" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="273" spans="1:59">
       <c r="A273">
         <v>3</v>
       </c>
@@ -30820,8 +31633,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600272'),</v>
       </c>
-    </row>
-    <row r="274" spans="1:39">
+      <c r="BG273" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="274" spans="1:59">
       <c r="A274">
         <v>3</v>
       </c>
@@ -30892,8 +31708,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600273'),</v>
       </c>
-    </row>
-    <row r="275" spans="1:39">
+      <c r="BG274" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="275" spans="1:59">
       <c r="A275">
         <v>3</v>
       </c>
@@ -30964,8 +31783,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600274'),</v>
       </c>
-    </row>
-    <row r="276" spans="1:39">
+      <c r="BG275" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="276" spans="1:59">
       <c r="A276">
         <v>3</v>
       </c>
@@ -31036,8 +31858,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600275'),</v>
       </c>
-    </row>
-    <row r="277" spans="1:39">
+      <c r="BG276" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="277" spans="1:59">
       <c r="A277">
         <v>3</v>
       </c>
@@ -31108,8 +31933,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600276'),</v>
       </c>
-    </row>
-    <row r="278" spans="1:39">
+      <c r="BG277" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="278" spans="1:59">
       <c r="A278">
         <v>3</v>
       </c>
@@ -31180,8 +32008,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600277'),</v>
       </c>
-    </row>
-    <row r="279" spans="1:39">
+      <c r="BG278" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="279" spans="1:59">
       <c r="A279">
         <v>3</v>
       </c>
@@ -31252,8 +32083,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600278'),</v>
       </c>
-    </row>
-    <row r="280" spans="1:39">
+      <c r="BG279" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="280" spans="1:59">
       <c r="A280">
         <v>3</v>
       </c>
@@ -31324,8 +32158,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600279'),</v>
       </c>
-    </row>
-    <row r="281" spans="1:39">
+      <c r="BG280" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="281" spans="1:59">
       <c r="A281">
         <v>3</v>
       </c>
@@ -31396,8 +32233,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600280'),</v>
       </c>
-    </row>
-    <row r="282" spans="1:39">
+      <c r="BG281" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="282" spans="1:59">
       <c r="A282">
         <v>3</v>
       </c>
@@ -31468,8 +32308,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600281'),</v>
       </c>
-    </row>
-    <row r="283" spans="1:39">
+      <c r="BG282" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="283" spans="1:59">
       <c r="A283">
         <v>3</v>
       </c>
@@ -31540,8 +32383,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600282'),</v>
       </c>
-    </row>
-    <row r="284" spans="1:39">
+      <c r="BG283" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="284" spans="1:59">
       <c r="A284">
         <v>3</v>
       </c>
@@ -31612,8 +32458,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600283'),</v>
       </c>
-    </row>
-    <row r="285" spans="1:39">
+      <c r="BG284" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="285" spans="1:59">
       <c r="A285">
         <v>3</v>
       </c>
@@ -31684,8 +32533,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600284'),</v>
       </c>
-    </row>
-    <row r="286" spans="1:39">
+      <c r="BG285" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="286" spans="1:59">
       <c r="A286">
         <v>3</v>
       </c>
@@ -31756,8 +32608,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600285'),</v>
       </c>
-    </row>
-    <row r="287" spans="1:39">
+      <c r="BG286" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="287" spans="1:59">
       <c r="A287">
         <v>3</v>
       </c>
@@ -31828,8 +32683,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600286'),</v>
       </c>
-    </row>
-    <row r="288" spans="1:39">
+      <c r="BG287" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="288" spans="1:59">
       <c r="A288">
         <v>3</v>
       </c>
@@ -31900,8 +32758,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600287'),</v>
       </c>
-    </row>
-    <row r="289" spans="1:39">
+      <c r="BG288" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="289" spans="1:59">
       <c r="A289">
         <v>3</v>
       </c>
@@ -31972,8 +32833,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600288'),</v>
       </c>
-    </row>
-    <row r="290" spans="1:39">
+      <c r="BG289" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="290" spans="1:59">
       <c r="A290">
         <v>3</v>
       </c>
@@ -32044,8 +32908,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600289'),</v>
       </c>
-    </row>
-    <row r="291" spans="1:39">
+      <c r="BG290" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="291" spans="1:59">
       <c r="A291">
         <v>3</v>
       </c>
@@ -32116,8 +32983,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600290'),</v>
       </c>
-    </row>
-    <row r="292" spans="1:39">
+      <c r="BG291" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="292" spans="1:59">
       <c r="A292">
         <v>3</v>
       </c>
@@ -32188,8 +33058,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600291'),</v>
       </c>
-    </row>
-    <row r="293" spans="1:39">
+      <c r="BG292" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="293" spans="1:59">
       <c r="A293">
         <v>3</v>
       </c>
@@ -32260,8 +33133,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600292'),</v>
       </c>
-    </row>
-    <row r="294" spans="1:39">
+      <c r="BG293" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="294" spans="1:59">
       <c r="A294">
         <v>3</v>
       </c>
@@ -32332,8 +33208,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600293'),</v>
       </c>
-    </row>
-    <row r="295" spans="1:39">
+      <c r="BG294" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="295" spans="1:59">
       <c r="A295">
         <v>3</v>
       </c>
@@ -32404,8 +33283,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600294'),</v>
       </c>
-    </row>
-    <row r="296" spans="1:39">
+      <c r="BG295" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="296" spans="1:59">
       <c r="A296">
         <v>3</v>
       </c>
@@ -32476,8 +33358,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600295'),</v>
       </c>
-    </row>
-    <row r="297" spans="1:39">
+      <c r="BG296" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="297" spans="1:59">
       <c r="A297">
         <v>3</v>
       </c>
@@ -32548,8 +33433,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600296'),</v>
       </c>
-    </row>
-    <row r="298" spans="1:39">
+      <c r="BG297" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="298" spans="1:59">
       <c r="A298">
         <v>3</v>
       </c>
@@ -32620,8 +33508,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600297'),</v>
       </c>
-    </row>
-    <row r="299" spans="1:39">
+      <c r="BG298" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="299" spans="1:59">
       <c r="A299">
         <v>3</v>
       </c>
@@ -32692,8 +33583,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600298'),</v>
       </c>
-    </row>
-    <row r="300" spans="1:39">
+      <c r="BG299" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="300" spans="1:59">
       <c r="A300">
         <v>3</v>
       </c>
@@ -32764,8 +33658,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600299'),</v>
       </c>
-    </row>
-    <row r="301" spans="1:39">
+      <c r="BG300" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="301" spans="1:59">
       <c r="A301">
         <v>3</v>
       </c>
@@ -32836,8 +33733,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600300'),</v>
       </c>
-    </row>
-    <row r="302" spans="1:39">
+      <c r="BG301" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="302" spans="1:59">
       <c r="A302">
         <v>3</v>
       </c>
@@ -32908,8 +33808,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600301'),</v>
       </c>
-    </row>
-    <row r="303" spans="1:39">
+      <c r="BG302" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="303" spans="1:59">
       <c r="A303">
         <v>3</v>
       </c>
@@ -32980,8 +33883,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600302'),</v>
       </c>
-    </row>
-    <row r="304" spans="1:39">
+      <c r="BG303" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="304" spans="1:59">
       <c r="A304">
         <v>3</v>
       </c>
@@ -33052,8 +33958,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600303'),</v>
       </c>
-    </row>
-    <row r="305" spans="1:39">
+      <c r="BG304" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="305" spans="1:59">
       <c r="A305">
         <v>3</v>
       </c>
@@ -33124,8 +34033,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600304'),</v>
       </c>
-    </row>
-    <row r="306" spans="1:39">
+      <c r="BG305" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="306" spans="1:59">
       <c r="A306">
         <v>3</v>
       </c>
@@ -33196,8 +34108,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600305'),</v>
       </c>
-    </row>
-    <row r="307" spans="1:39">
+      <c r="BG306" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="307" spans="1:59">
       <c r="A307">
         <v>3</v>
       </c>
@@ -33268,8 +34183,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600306'),</v>
       </c>
-    </row>
-    <row r="308" spans="1:39">
+      <c r="BG307" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="308" spans="1:59">
       <c r="A308">
         <v>3</v>
       </c>
@@ -33340,8 +34258,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600307'),</v>
       </c>
-    </row>
-    <row r="309" spans="1:39">
+      <c r="BG308" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="309" spans="1:59">
       <c r="A309">
         <v>3</v>
       </c>
@@ -33412,8 +34333,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600308'),</v>
       </c>
-    </row>
-    <row r="310" spans="1:39">
+      <c r="BG309" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="310" spans="1:59">
       <c r="A310">
         <v>3</v>
       </c>
@@ -33484,8 +34408,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600309'),</v>
       </c>
-    </row>
-    <row r="311" spans="1:39">
+      <c r="BG310" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="311" spans="1:59">
       <c r="A311">
         <v>3</v>
       </c>
@@ -33556,8 +34483,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600310'),</v>
       </c>
-    </row>
-    <row r="312" spans="1:39">
+      <c r="BG311" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="312" spans="1:59">
       <c r="A312">
         <v>3</v>
       </c>
@@ -33628,8 +34558,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600311'),</v>
       </c>
-    </row>
-    <row r="313" spans="1:39">
+      <c r="BG312" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="313" spans="1:59">
       <c r="A313">
         <v>3</v>
       </c>
@@ -33700,8 +34633,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600312'),</v>
       </c>
-    </row>
-    <row r="314" spans="1:39">
+      <c r="BG313" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="314" spans="1:59">
       <c r="A314">
         <v>3</v>
       </c>
@@ -33772,8 +34708,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600313'),</v>
       </c>
-    </row>
-    <row r="315" spans="1:39">
+      <c r="BG314" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="315" spans="1:59">
       <c r="A315">
         <v>3</v>
       </c>
@@ -33844,8 +34783,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600314'),</v>
       </c>
-    </row>
-    <row r="316" spans="1:39">
+      <c r="BG315" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="316" spans="1:59">
       <c r="A316">
         <v>3</v>
       </c>
@@ -33916,8 +34858,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600315'),</v>
       </c>
-    </row>
-    <row r="317" spans="1:39">
+      <c r="BG316" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="317" spans="1:59">
       <c r="A317">
         <v>3</v>
       </c>
@@ -33988,8 +34933,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600316'),</v>
       </c>
-    </row>
-    <row r="318" spans="1:39">
+      <c r="BG317" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="318" spans="1:59">
       <c r="A318">
         <v>3</v>
       </c>
@@ -34060,8 +35008,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600317'),</v>
       </c>
-    </row>
-    <row r="319" spans="1:39">
+      <c r="BG318" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="319" spans="1:59">
       <c r="A319">
         <v>3</v>
       </c>
@@ -34132,8 +35083,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600318'),</v>
       </c>
-    </row>
-    <row r="320" spans="1:39">
+      <c r="BG319" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="320" spans="1:59">
       <c r="A320">
         <v>3</v>
       </c>
@@ -34204,8 +35158,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600319'),</v>
       </c>
-    </row>
-    <row r="321" spans="1:39">
+      <c r="BG320" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="321" spans="1:59">
       <c r="A321">
         <v>3</v>
       </c>
@@ -34276,8 +35233,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600320'),</v>
       </c>
-    </row>
-    <row r="322" spans="1:39">
+      <c r="BG321" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="322" spans="1:59">
       <c r="A322">
         <v>3</v>
       </c>
@@ -34348,8 +35308,11 @@
         <f t="shared" si="49"/>
         <v>('11','i2023110600321'),</v>
       </c>
-    </row>
-    <row r="323" spans="1:39">
+      <c r="BG322" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="323" spans="1:59">
       <c r="A323">
         <v>3</v>
       </c>
@@ -34420,8 +35383,11 @@
         <f t="shared" ref="AM323:AM334" si="56">"('"&amp;AK323&amp;"','"&amp;AL323&amp;"'),"</f>
         <v>('11','i2023110600322'),</v>
       </c>
-    </row>
-    <row r="324" spans="1:39">
+      <c r="BG323" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="324" spans="1:59">
       <c r="A324">
         <v>3</v>
       </c>
@@ -34492,8 +35458,11 @@
         <f t="shared" si="56"/>
         <v>('11','i2023110600323'),</v>
       </c>
-    </row>
-    <row r="325" spans="1:39">
+      <c r="BG324" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="325" spans="1:59">
       <c r="A325">
         <v>3</v>
       </c>
@@ -34564,8 +35533,11 @@
         <f t="shared" si="56"/>
         <v>('11','i2023110600324'),</v>
       </c>
-    </row>
-    <row r="326" spans="1:39">
+      <c r="BG325" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="326" spans="1:59">
       <c r="A326">
         <v>3</v>
       </c>
@@ -34636,8 +35608,11 @@
         <f t="shared" si="56"/>
         <v>('11','i2023110600325'),</v>
       </c>
-    </row>
-    <row r="327" spans="1:39">
+      <c r="BG326" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="327" spans="1:59">
       <c r="A327">
         <v>3</v>
       </c>
@@ -34708,8 +35683,11 @@
         <f t="shared" si="56"/>
         <v>('11','i2023110600326'),</v>
       </c>
-    </row>
-    <row r="328" spans="1:39">
+      <c r="BG327" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="328" spans="1:59">
       <c r="A328">
         <v>3</v>
       </c>
@@ -34780,8 +35758,11 @@
         <f t="shared" si="56"/>
         <v>('11','i2023110600327'),</v>
       </c>
-    </row>
-    <row r="329" spans="1:39">
+      <c r="BG328" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="329" spans="1:59">
       <c r="A329">
         <v>3</v>
       </c>
@@ -34852,8 +35833,11 @@
         <f t="shared" si="56"/>
         <v>('11','i2023110600328'),</v>
       </c>
-    </row>
-    <row r="330" spans="1:39">
+      <c r="BG329" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="330" spans="1:59">
       <c r="A330">
         <v>3</v>
       </c>
@@ -34924,8 +35908,11 @@
         <f t="shared" si="56"/>
         <v>('11','i2023110600329'),</v>
       </c>
-    </row>
-    <row r="331" spans="1:39">
+      <c r="BG330" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="331" spans="1:59">
       <c r="A331">
         <v>3</v>
       </c>
@@ -34996,8 +35983,11 @@
         <f t="shared" si="56"/>
         <v>('11','i2023110600330'),</v>
       </c>
-    </row>
-    <row r="332" spans="1:39">
+      <c r="BG331" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="332" spans="1:59">
       <c r="A332">
         <v>3</v>
       </c>
@@ -35068,8 +36058,11 @@
         <f t="shared" si="56"/>
         <v>('11','i2023110600331'),</v>
       </c>
-    </row>
-    <row r="333" spans="1:39">
+      <c r="BG332" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="333" spans="1:59">
       <c r="A333">
         <v>3</v>
       </c>
@@ -35140,8 +36133,11 @@
         <f t="shared" si="56"/>
         <v>('11','i2023110600332'),</v>
       </c>
-    </row>
-    <row r="334" spans="1:39">
+      <c r="BG333" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="334" spans="1:59">
       <c r="A334">
         <v>3</v>
       </c>
@@ -35212,8 +36208,11 @@
         <f t="shared" si="56"/>
         <v>('11','i2023110600333'),</v>
       </c>
-    </row>
-    <row r="335" spans="1:39">
+      <c r="BG334" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="335" spans="1:59">
       <c r="A335">
         <v>3</v>
       </c>
@@ -35275,7 +36274,7 @@
         <v>('45','i2023110600316'),</v>
       </c>
     </row>
-    <row r="336" spans="1:39">
+    <row r="336" spans="1:59">
       <c r="A336">
         <v>3</v>
       </c>
